--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_재비산_TSP.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_재비산_TSP.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_TSP</t>
+  </si>
+  <si>
+    <t>02_taxi_TSP</t>
+  </si>
+  <si>
+    <t>03_van_TSP</t>
+  </si>
+  <si>
+    <t>04_bus_TSP</t>
+  </si>
+  <si>
+    <t>05_LightTruck_TSP</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_TSP</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_TSP</t>
+  </si>
+  <si>
+    <t>Total_TSP (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1272 +397,1372 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_TSP</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_TSP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_TSP</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_TSP</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_TSP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_TSP</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_TSP (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024101513</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>181.0205746472286</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>7.406818434504466</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>39.68979682295402</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>26.83176542791808</v>
+      </c>
+      <c r="F2">
         <v>64.3248604354994</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>140.0714043817052</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>2.404101999918897</v>
       </c>
-      <c r="H2" t="n">
-        <v>434.9175567218106</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>461.7493221497286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024101514</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>179.8024011973819</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>6.733471304094972</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>83.78957107068069</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>26.83176542791808</v>
+      </c>
+      <c r="F3">
         <v>52.07250606683286</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>120.4122599070799</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>3.606152999878346</v>
       </c>
-      <c r="H3" t="n">
-        <v>446.4163625459487</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>473.2481279738668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024101515</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>190.5223275560335</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>13.46694260818994</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>66.14966137159001</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>33.5397067848976</v>
+      </c>
+      <c r="F4">
         <v>47.17156431936625</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>110.5826876697672</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>8.414356999716139</v>
       </c>
-      <c r="H4" t="n">
-        <v>436.307540524663</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>469.8472473095606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024101516</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>250.2128265985247</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>4.713429912866479</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>108.0444469069304</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>46.95558949885665</v>
+      </c>
+      <c r="F5">
         <v>49.00941747466623</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>63.89221954253218</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>3.606152999878346</v>
       </c>
-      <c r="H5" t="n">
-        <v>479.4784934353984</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>526.4340829342549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024101517</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>323.790502969269</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>3.366735652047486</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>92.60952592022603</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>55.89951130816268</v>
+      </c>
+      <c r="F6">
         <v>41.04538713503296</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>68.80700566118854</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>3.606152999878346</v>
       </c>
-      <c r="H6" t="n">
-        <v>533.2253103376423</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>589.124821645805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024101518</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>274.57629559546</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>3.366735652047486</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>55.12471780965836</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>69.31539402212169</v>
+      </c>
+      <c r="F7">
         <v>28.79303276636641</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>63.89221954253218</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>6.010254999797243</v>
       </c>
-      <c r="H7" t="n">
-        <v>431.7632563658617</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>501.0786503879834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024101519</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>194.420482595543</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>8.080165564913965</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>37.48480811056768</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>42.48362859420362</v>
+      </c>
+      <c r="F8">
         <v>16.54067839769985</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>105.6679015511109</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>2.404101999918897</v>
       </c>
-      <c r="H8" t="n">
-        <v>364.5981382197543</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>407.0817668139579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024101520</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>120.8428062247987</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>4.040082782456983</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>39.68979682295402</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>64.84343311746871</v>
+      </c>
+      <c r="F9">
         <v>17.15329611613318</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>113.0400807290954</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>1.202050999959449</v>
       </c>
-      <c r="H9" t="n">
-        <v>295.9681136753977</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>360.8115467928664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024101521</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>98.18478005764891</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>7.406818434504466</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>17.63990969909067</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>17.88784361861205</v>
+      </c>
+      <c r="F10">
         <v>10.41450121336657</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>68.80700566118854</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>202.4530150657991</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>220.3408586844112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024101522</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>64.56319284187835</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>2.020041391228491</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>6.614966137159003</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>29.06774588024459</v>
+      </c>
+      <c r="F11">
         <v>7.351412621199932</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>73.72179177984484</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>154.2714047713106</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>183.3391506515552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024101523</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>36.54520349540283</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>6.060124173685475</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>4.409977424772668</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>17.88784361861205</v>
+      </c>
+      <c r="F12">
         <v>3.675706310599966</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>22.11653753395345</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>1.202050999959449</v>
       </c>
-      <c r="H12" t="n">
-        <v>74.00959993837384</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>91.89744355698589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024101600</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>22.17075678721105</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>2.693388521637988</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>4.409977424772668</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>11.17990226163253</v>
+      </c>
+      <c r="F13">
         <v>3.675706310599966</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>19.65914447462529</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>52.60897351884695</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>63.78887578047949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024101601</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>12.91263856837566</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>4.040082782456983</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>6.614966137159003</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>8.943921809306024</v>
+      </c>
+      <c r="F14">
         <v>5.51355946589995</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>36.86089588992242</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>65.94214284381403</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>74.88606465312004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024101602</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>6.090867249233804</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3.366735652047486</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>6.614966137159003</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>2.235980452326506</v>
+      </c>
+      <c r="F15">
         <v>5.51355946589995</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>17.20175141529714</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>38.78787991963738</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>41.02386037196388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024101603</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>3.410885659570932</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>2.020041391228491</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>2.204988712386334</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16">
         <v>1.837853155299983</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>29.48871671193793</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
+      <c r="I16">
         <v>38.96248563042367</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024101604</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>16.56715891791595</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>4.409977424772668</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>8.943921809306024</v>
+      </c>
+      <c r="F17">
         <v>4.900941747466622</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>61.43482648320401</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>87.31290457335925</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>96.25682638266528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024101605</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>39.95608915497375</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>2.693388521637988</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>8.819954849545336</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>26.83176542791808</v>
+      </c>
+      <c r="F18">
         <v>15.92806067926652</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>137.6140113223771</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>205.0115045278007</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>231.8432699557188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024101606</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>126.2027694041244</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>2.020041391228491</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>22.04988712386334</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>93.91117899771329</v>
+      </c>
+      <c r="F19">
         <v>31.85612135853305</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>196.5914447462529</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19">
         <v>3.606152999878346</v>
       </c>
-      <c r="H19" t="n">
-        <v>382.3264170238805</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>476.2375960215939</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024101607</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>254.8418857079423</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>4.040082782456983</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>72.76462750874903</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>78.25931583142776</v>
+      </c>
+      <c r="F20">
         <v>52.68512378526619</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>142.5287974410334</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>7.212305999756691</v>
       </c>
-      <c r="H20" t="n">
-        <v>534.0728232252046</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>612.3321390566324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024101608</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>279.9362587747858</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>7.406818434504466</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>44.09977424772669</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>58.13549176048919</v>
+      </c>
+      <c r="F21">
         <v>45.94632888249959</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>132.6992252037207</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>7.212305999756691</v>
       </c>
-      <c r="H21" t="n">
-        <v>517.3007115429939</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>575.436203303483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024101609</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>218.7839515924782</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>4.713429912866479</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>61.73968394681738</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>58.13549176048919</v>
+      </c>
+      <c r="F22">
         <v>53.91035922213285</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>167.102728034315</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>6.010254999797243</v>
       </c>
-      <c r="H22" t="n">
-        <v>512.2604077084071</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>570.3958994688963</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024101610</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>154.2207587506</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>11.44690121696145</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>50.71474038488569</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>22.35980452326507</v>
+      </c>
+      <c r="F23">
         <v>66.16271359079938</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>164.6453349749868</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>7.212305999756691</v>
       </c>
-      <c r="H23" t="n">
-        <v>454.40275491799</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>476.7625594412551</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024101611</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>157.1443750302321</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>4.040082782456983</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>59.53469523443104</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>33.5397067848976</v>
+      </c>
+      <c r="F24">
         <v>61.26177184333278</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>147.4435835596897</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>3.606152999878346</v>
       </c>
-      <c r="H24" t="n">
-        <v>433.0306614500209</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>466.5703682349185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024101612</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>147.8862568113968</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>8.753512695323463</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>39.68979682295402</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>29.06774588024459</v>
+      </c>
+      <c r="F25">
         <v>38.59491626129965</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>108.1252946104391</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>2.404101999918897</v>
       </c>
-      <c r="H25" t="n">
-        <v>345.4538792013319</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>374.5216250815765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024101613</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>171.0315523584852</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>4.713429912866479</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>61.73968394681738</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>24.59578497559158</v>
+      </c>
+      <c r="F26">
         <v>60.03653640646614</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>120.4122599070799</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>6.010254999797243</v>
       </c>
-      <c r="H26" t="n">
-        <v>423.9437175315124</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>448.539502507104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024101614</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>165.6715891791595</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>5.386777043275977</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>48.50975167249935</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>22.35980452326507</v>
+      </c>
+      <c r="F27">
         <v>36.75706310599966</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>130.2418321443926</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>2.404101999918897</v>
       </c>
-      <c r="H27" t="n">
-        <v>388.9711151452459</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>411.330919668511</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024101615</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>182.7260174770142</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>7.406818434504466</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>81.58458235829438</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>38.01166768955061</v>
+      </c>
+      <c r="F28">
         <v>54.52297694056618</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>115.4974737884236</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>4.808203999837795</v>
       </c>
-      <c r="H28" t="n">
-        <v>446.5460729986406</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>484.5577406881912</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024101616</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>262.1509264070228</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>8.080165564913965</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>90.40453720783972</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>44.71960904653014</v>
+      </c>
+      <c r="F29">
         <v>58.19868325116614</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>78.63657789850114</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>6.010254999797243</v>
       </c>
-      <c r="H29" t="n">
-        <v>503.4811453292411</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>548.2007543757711</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024101617</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>297.2343217626096</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>9.426859825732958</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>88.19954849545337</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>51.42755040350966</v>
+      </c>
+      <c r="F30">
         <v>37.98229854286633</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>56.5200403645477</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>6.010254999797243</v>
       </c>
-      <c r="H30" t="n">
-        <v>495.3733239910072</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>546.8008743945168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024101618</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>278.7180853249388</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>6.733471304094972</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>94.81451463261237</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>71.5513744744482</v>
+      </c>
+      <c r="F31">
         <v>29.40565048479973</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>90.92354319514197</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>2.404101999918897</v>
       </c>
-      <c r="H31" t="n">
-        <v>502.9993669415068</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>574.550741415955</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024101619</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>177.3660542976884</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>5.386777043275977</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>90.40453720783972</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>60.3714722128157</v>
+      </c>
+      <c r="F32">
         <v>25.72994417419977</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>103.2105084917828</v>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="n">
-        <v>402.0978212147866</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>462.4692934276023</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024101620</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>112.071957385902</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>8.080165564913965</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>46.30476296011302</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>71.5513744744482</v>
+      </c>
+      <c r="F33">
         <v>14.09020752396654</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>88.46615013581381</v>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
-        <v>269.0132435707093</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>340.5646180451575</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024101621</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>94.77389439807803</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>4.713429912866479</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>22.04988712386334</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>22.35980452326507</v>
+      </c>
+      <c r="F34">
         <v>12.25235436866656</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>76.179184839173</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>1.202050999959449</v>
       </c>
-      <c r="H34" t="n">
-        <v>211.1708016426069</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>233.5306061658719</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024101622</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>75.03948451056047</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>6.060124173685475</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>24.25487583624967</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>31.3037263325711</v>
+      </c>
+      <c r="F35">
         <v>15.92806067926652</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>81.09397095782931</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>1.202050999959449</v>
       </c>
-      <c r="H35" t="n">
-        <v>203.5785671575509</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>234.882293490122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024101623</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>38.73791570512698</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>4.713429912866479</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>13.22993227431801</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>15.65186316628555</v>
+      </c>
+      <c r="F36">
         <v>7.351412621199932</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>39.31828894925057</v>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="n">
-        <v>103.350979462762</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>119.0028426290475</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024101700</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>23.63256492702715</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>6.060124173685475</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>4.409977424772668</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>11.17990226163253</v>
+      </c>
+      <c r="F37">
         <v>7.964030339633262</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>24.57393059328162</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>1.202050999959449</v>
       </c>
-      <c r="H37" t="n">
-        <v>67.84267845835963</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>79.02258071999216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024101701</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>11.45083042855956</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>6.733471304094972</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>4.409977424772668</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>11.17990226163253</v>
+      </c>
+      <c r="F38">
         <v>5.51355946589995</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>27.03132365260977</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>55.13916227593693</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>66.31906453756946</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024101702</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>8.770848838896677</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>2.020041391228491</v>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="n">
+      <c r="F39">
         <v>3.063088592166639</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>27.03132365260977</v>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
+      <c r="I39">
         <v>40.88530247490158</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024101703</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>8.527214148927323</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>2.693388521637988</v>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>4.471960904653012</v>
+      </c>
+      <c r="F40">
         <v>5.51355946589995</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>51.60525424589139</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>68.33941638235665</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>72.81137728700966</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024101704</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>18.75987112764012</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>1.346694260818994</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>8.819954849545336</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>8.943921809306024</v>
+      </c>
+      <c r="F41">
         <v>11.0271189317999</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>98.29572237312647</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>138.2493615429308</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>147.1932833522368</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024101705</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>41.66153198475923</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>4.040082782456983</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>19.84489841147701</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>31.3037263325711</v>
+      </c>
+      <c r="F42">
         <v>15.3154429608332</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>125.3270460257362</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42">
         <v>2.404101999918897</v>
       </c>
-      <c r="H42" t="n">
-        <v>208.5931041651816</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>239.8968304977527</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024101706</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>138.6281385925614</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>3.366735652047486</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>26.45986454863601</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>100.6191203546928</v>
+      </c>
+      <c r="F43">
         <v>39.82015169816631</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>191.6766586275966</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>399.9515491190078</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>500.5706694737006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024101707</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>250.7000959784634</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>4.040082782456983</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>66.14966137159001</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>80.49529628375423</v>
+      </c>
+      <c r="F44">
         <v>49.00941747466623</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>174.4749072122995</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44">
         <v>7.212305999756691</v>
       </c>
-      <c r="H44" t="n">
-        <v>551.5864708192328</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>632.081767102987</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024101708</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>274.3326609054906</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>6.733471304094972</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>61.73968394681738</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>53.66353085583616</v>
+      </c>
+      <c r="F45">
         <v>39.20753397973298</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>127.7844390850644</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>4.808203999837795</v>
       </c>
-      <c r="H45" t="n">
-        <v>514.605993221038</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>568.2695240768742</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024101709</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>206.6022170940106</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>10.10020695614246</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>63.94467265920368</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>49.19156995118315</v>
+      </c>
+      <c r="F46">
         <v>47.17156431936625</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>176.9323002716276</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>4.808203999837795</v>
       </c>
-      <c r="H46" t="n">
-        <v>509.5591653001884</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>558.7507352513716</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024101710</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>156.413470960324</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>6.733471304094972</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>61.73968394681738</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>35.7756872372241</v>
+      </c>
+      <c r="F47">
         <v>58.19868325116614</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>174.4749072122995</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>6.010254999797243</v>
       </c>
-      <c r="H47" t="n">
-        <v>463.5704716744993</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>499.3461589117233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024101711</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>152.0280465408757</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>4.713429912866479</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>48.50975167249935</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>38.01166768955061</v>
+      </c>
+      <c r="F48">
         <v>55.74821237743284</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>125.3270460257362</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>4.808203999837795</v>
       </c>
-      <c r="H48" t="n">
-        <v>391.1346905292484</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>429.1463582187989</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024101712</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>156.9007403402628</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>10.77355408655195</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>48.50975167249935</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>29.06774588024459</v>
+      </c>
+      <c r="F49">
         <v>45.94632888249959</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>100.7531154324546</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>2.404101999918897</v>
       </c>
-      <c r="H49" t="n">
-        <v>365.2875924141873</v>
+      <c r="I49">
+        <v>394.3553382944319</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_재비산_TSP.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>181.0205746472286</v>
+        <v>347.9497273159305</v>
       </c>
       <c r="C2">
-        <v>7.406818434504466</v>
+        <v>14.23705818847865</v>
       </c>
       <c r="D2">
-        <v>39.68979682295402</v>
+        <v>76.28996874352241</v>
       </c>
       <c r="E2">
-        <v>26.83176542791808</v>
+        <v>51.57483055306409</v>
       </c>
       <c r="F2">
-        <v>64.3248604354994</v>
+        <v>123.64239640596</v>
       </c>
       <c r="G2">
-        <v>140.0714043817052</v>
+        <v>269.2390467456729</v>
       </c>
       <c r="H2">
-        <v>2.404101999918897</v>
+        <v>4.621058335173449</v>
       </c>
       <c r="I2">
-        <v>461.7493221497286</v>
+        <v>887.554086287802</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>179.8024011973819</v>
+        <v>345.6082082895784</v>
       </c>
       <c r="C3">
-        <v>6.733471304094972</v>
+        <v>12.94278017134423</v>
       </c>
       <c r="D3">
-        <v>83.78957107068069</v>
+        <v>161.0566006807695</v>
       </c>
       <c r="E3">
-        <v>26.83176542791808</v>
+        <v>51.57483055306409</v>
       </c>
       <c r="F3">
-        <v>52.07250606683286</v>
+        <v>100.0914637572057</v>
       </c>
       <c r="G3">
-        <v>120.4122599070799</v>
+        <v>231.4511103603152</v>
       </c>
       <c r="H3">
-        <v>3.606152999878346</v>
+        <v>6.931587502760173</v>
       </c>
       <c r="I3">
-        <v>473.2481279738668</v>
+        <v>909.6565813150372</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>190.5223275560335</v>
+        <v>366.2135757214774</v>
       </c>
       <c r="C4">
-        <v>13.46694260818994</v>
+        <v>25.88556034268846</v>
       </c>
       <c r="D4">
-        <v>66.14966137159001</v>
+        <v>127.1499479058707</v>
       </c>
       <c r="E4">
-        <v>33.5397067848976</v>
+        <v>64.46853819133013</v>
       </c>
       <c r="F4">
-        <v>47.17156431936625</v>
+        <v>90.67109069770396</v>
       </c>
       <c r="G4">
-        <v>110.5826876697672</v>
+        <v>212.5571421676364</v>
       </c>
       <c r="H4">
-        <v>8.414356999716139</v>
+        <v>16.17370417310707</v>
       </c>
       <c r="I4">
-        <v>469.8472473095606</v>
+        <v>903.1195591998141</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>250.2128265985247</v>
+        <v>480.9480080127332</v>
       </c>
       <c r="C5">
-        <v>4.713429912866479</v>
+        <v>9.059946119940959</v>
       </c>
       <c r="D5">
-        <v>108.0444469069304</v>
+        <v>207.6782482462554</v>
       </c>
       <c r="E5">
-        <v>46.95558949885665</v>
+        <v>90.25595346786218</v>
       </c>
       <c r="F5">
-        <v>49.00941747466623</v>
+        <v>94.20373059501711</v>
       </c>
       <c r="G5">
-        <v>63.89221954253218</v>
+        <v>122.8107932524122</v>
       </c>
       <c r="H5">
-        <v>3.606152999878346</v>
+        <v>6.931587502760173</v>
       </c>
       <c r="I5">
-        <v>526.4340829342549</v>
+        <v>1011.888267196981</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>323.790502969269</v>
+        <v>622.3757572044032</v>
       </c>
       <c r="C6">
-        <v>3.366735652047486</v>
+        <v>6.471390085672115</v>
       </c>
       <c r="D6">
-        <v>92.60952592022603</v>
+        <v>178.0099270682189</v>
       </c>
       <c r="E6">
-        <v>55.89951130816268</v>
+        <v>107.4475636522169</v>
       </c>
       <c r="F6">
-        <v>41.04538713503296</v>
+        <v>78.89562437332684</v>
       </c>
       <c r="G6">
-        <v>68.80700566118854</v>
+        <v>132.2577773487516</v>
       </c>
       <c r="H6">
-        <v>3.606152999878346</v>
+        <v>6.931587502760173</v>
       </c>
       <c r="I6">
-        <v>589.124821645805</v>
+        <v>1132.38962723535</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>274.57629559546</v>
+        <v>527.7783885397762</v>
       </c>
       <c r="C7">
-        <v>3.366735652047486</v>
+        <v>6.471390085672115</v>
       </c>
       <c r="D7">
-        <v>55.12471780965836</v>
+        <v>105.9582899215589</v>
       </c>
       <c r="E7">
-        <v>69.31539402212169</v>
+        <v>133.2349789287489</v>
       </c>
       <c r="F7">
-        <v>28.79303276636641</v>
+        <v>55.34469172457256</v>
       </c>
       <c r="G7">
-        <v>63.89221954253218</v>
+        <v>122.8107932524122</v>
       </c>
       <c r="H7">
-        <v>6.010254999797243</v>
+        <v>11.55264583793362</v>
       </c>
       <c r="I7">
-        <v>501.0786503879834</v>
+        <v>963.1511782906746</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>194.420482595543</v>
+        <v>373.7064366058041</v>
       </c>
       <c r="C8">
-        <v>8.080165564913965</v>
+        <v>15.53133620561307</v>
       </c>
       <c r="D8">
-        <v>37.48480811056768</v>
+        <v>72.05163714666004</v>
       </c>
       <c r="E8">
-        <v>42.48362859420362</v>
+        <v>81.66014837568481</v>
       </c>
       <c r="F8">
-        <v>16.54067839769985</v>
+        <v>31.79375907581828</v>
       </c>
       <c r="G8">
-        <v>105.6679015511109</v>
+        <v>203.1101580712971</v>
       </c>
       <c r="H8">
-        <v>2.404101999918897</v>
+        <v>4.621058335173449</v>
       </c>
       <c r="I8">
-        <v>407.0817668139579</v>
+        <v>782.4745338160508</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>120.8428062247987</v>
+        <v>232.278687414134</v>
       </c>
       <c r="C9">
-        <v>4.040082782456983</v>
+        <v>7.765668102806535</v>
       </c>
       <c r="D9">
-        <v>39.68979682295402</v>
+        <v>76.28996874352241</v>
       </c>
       <c r="E9">
-        <v>64.84343311746871</v>
+        <v>124.6391738365716</v>
       </c>
       <c r="F9">
-        <v>17.15329611613318</v>
+        <v>32.97130570825599</v>
       </c>
       <c r="G9">
-        <v>113.0400807290954</v>
+        <v>217.2806342158062</v>
       </c>
       <c r="H9">
-        <v>1.202050999959449</v>
+        <v>2.310529167586724</v>
       </c>
       <c r="I9">
-        <v>360.8115467928664</v>
+        <v>693.5359671886835</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,25 +670,25 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>98.18478005764891</v>
+        <v>188.7264335239837</v>
       </c>
       <c r="C10">
-        <v>7.406818434504466</v>
+        <v>14.23705818847865</v>
       </c>
       <c r="D10">
-        <v>17.63990969909067</v>
+        <v>33.90665277489884</v>
       </c>
       <c r="E10">
-        <v>17.88784361861205</v>
+        <v>34.3832203687094</v>
       </c>
       <c r="F10">
-        <v>10.41450121336657</v>
+        <v>20.01829275144114</v>
       </c>
       <c r="G10">
-        <v>68.80700566118854</v>
+        <v>132.2577773487516</v>
       </c>
       <c r="I10">
-        <v>220.3408586844112</v>
+        <v>423.5294349562633</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,25 +696,25 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>64.56319284187835</v>
+        <v>124.1005083966643</v>
       </c>
       <c r="C11">
-        <v>2.020041391228491</v>
+        <v>3.882834051403267</v>
       </c>
       <c r="D11">
-        <v>6.614966137159003</v>
+        <v>12.71499479058706</v>
       </c>
       <c r="E11">
-        <v>29.06774588024459</v>
+        <v>55.87273309915278</v>
       </c>
       <c r="F11">
-        <v>7.351412621199932</v>
+        <v>14.13055958925257</v>
       </c>
       <c r="G11">
-        <v>73.72179177984484</v>
+        <v>141.704761445091</v>
       </c>
       <c r="I11">
-        <v>183.3391506515552</v>
+        <v>352.4063913721509</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -722,28 +722,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>36.54520349540283</v>
+        <v>70.24557079056468</v>
       </c>
       <c r="C12">
-        <v>6.060124173685475</v>
+        <v>11.6485021542098</v>
       </c>
       <c r="D12">
-        <v>4.409977424772668</v>
+        <v>8.476663193724709</v>
       </c>
       <c r="E12">
-        <v>17.88784361861205</v>
+        <v>34.3832203687094</v>
       </c>
       <c r="F12">
-        <v>3.675706310599966</v>
+        <v>7.065279794626283</v>
       </c>
       <c r="G12">
-        <v>22.11653753395345</v>
+        <v>42.51142843352729</v>
       </c>
       <c r="H12">
-        <v>1.202050999959449</v>
+        <v>2.310529167586724</v>
       </c>
       <c r="I12">
-        <v>91.89744355698589</v>
+        <v>176.6411939029489</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,25 +751,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>22.17075678721105</v>
+        <v>42.61564627960926</v>
       </c>
       <c r="C13">
-        <v>2.693388521637988</v>
+        <v>5.17711206853769</v>
       </c>
       <c r="D13">
-        <v>4.409977424772668</v>
+        <v>8.476663193724709</v>
       </c>
       <c r="E13">
-        <v>11.17990226163253</v>
+        <v>21.48951273044337</v>
       </c>
       <c r="F13">
-        <v>3.675706310599966</v>
+        <v>7.065279794626283</v>
       </c>
       <c r="G13">
-        <v>19.65914447462529</v>
+        <v>37.78793638535759</v>
       </c>
       <c r="I13">
-        <v>63.78887578047949</v>
+        <v>122.6121504522989</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -777,25 +777,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>12.91263856837566</v>
+        <v>24.82010167933285</v>
       </c>
       <c r="C14">
-        <v>4.040082782456983</v>
+        <v>7.765668102806535</v>
       </c>
       <c r="D14">
-        <v>6.614966137159003</v>
+        <v>12.71499479058706</v>
       </c>
       <c r="E14">
-        <v>8.943921809306024</v>
+        <v>17.1916101843547</v>
       </c>
       <c r="F14">
-        <v>5.51355946589995</v>
+        <v>10.59791969193942</v>
       </c>
       <c r="G14">
-        <v>36.86089588992242</v>
+        <v>70.85238072254549</v>
       </c>
       <c r="I14">
-        <v>74.88606465312004</v>
+        <v>143.9426751715661</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -803,25 +803,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>6.090867249233804</v>
+        <v>11.70759513176079</v>
       </c>
       <c r="C15">
-        <v>3.366735652047486</v>
+        <v>6.471390085672115</v>
       </c>
       <c r="D15">
-        <v>6.614966137159003</v>
+        <v>12.71499479058706</v>
       </c>
       <c r="E15">
-        <v>2.235980452326506</v>
+        <v>4.297902546088675</v>
       </c>
       <c r="F15">
-        <v>5.51355946589995</v>
+        <v>10.59791969193942</v>
       </c>
       <c r="G15">
-        <v>17.20175141529714</v>
+        <v>33.06444433718789</v>
       </c>
       <c r="I15">
-        <v>41.02386037196388</v>
+        <v>78.85424658323596</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -829,22 +829,22 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>3.410885659570932</v>
+        <v>6.556253273786042</v>
       </c>
       <c r="C16">
-        <v>2.020041391228491</v>
+        <v>3.882834051403267</v>
       </c>
       <c r="D16">
-        <v>2.204988712386334</v>
+        <v>4.238331596862355</v>
       </c>
       <c r="F16">
-        <v>1.837853155299983</v>
+        <v>3.532639897313142</v>
       </c>
       <c r="G16">
-        <v>29.48871671193793</v>
+        <v>56.6819045780364</v>
       </c>
       <c r="I16">
-        <v>38.96248563042367</v>
+        <v>74.8919633974012</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -852,22 +852,22 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>16.56715891791595</v>
+        <v>31.84465875838933</v>
       </c>
       <c r="D17">
-        <v>4.409977424772668</v>
+        <v>8.476663193724709</v>
       </c>
       <c r="E17">
-        <v>8.943921809306024</v>
+        <v>17.1916101843547</v>
       </c>
       <c r="F17">
-        <v>4.900941747466622</v>
+        <v>9.420373059501713</v>
       </c>
       <c r="G17">
-        <v>61.43482648320401</v>
+        <v>118.0873012042425</v>
       </c>
       <c r="I17">
-        <v>96.25682638266528</v>
+        <v>185.0206064002129</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -875,25 +875,25 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>39.95608915497375</v>
+        <v>76.80182406435073</v>
       </c>
       <c r="C18">
-        <v>2.693388521637988</v>
+        <v>5.17711206853769</v>
       </c>
       <c r="D18">
-        <v>8.819954849545336</v>
+        <v>16.95332638744942</v>
       </c>
       <c r="E18">
-        <v>26.83176542791808</v>
+        <v>51.57483055306409</v>
       </c>
       <c r="F18">
-        <v>15.92806067926652</v>
+        <v>30.61621244338055</v>
       </c>
       <c r="G18">
-        <v>137.6140113223771</v>
+        <v>264.5155546975031</v>
       </c>
       <c r="I18">
-        <v>231.8432699557188</v>
+        <v>445.6388602142856</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,28 +901,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>126.2027694041244</v>
+        <v>242.5813711300835</v>
       </c>
       <c r="C19">
-        <v>2.020041391228491</v>
+        <v>3.882834051403267</v>
       </c>
       <c r="D19">
-        <v>22.04988712386334</v>
+        <v>42.38331596862356</v>
       </c>
       <c r="E19">
-        <v>93.91117899771329</v>
+        <v>180.5119069357244</v>
       </c>
       <c r="F19">
-        <v>31.85612135853305</v>
+        <v>61.23242488676111</v>
       </c>
       <c r="G19">
-        <v>196.5914447462529</v>
+        <v>377.8793638535759</v>
       </c>
       <c r="H19">
-        <v>3.606152999878346</v>
+        <v>6.931587502760173</v>
       </c>
       <c r="I19">
-        <v>476.2375960215939</v>
+        <v>915.4028043289319</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -930,28 +930,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>254.8418857079423</v>
+        <v>489.8457803128713</v>
       </c>
       <c r="C20">
-        <v>4.040082782456983</v>
+        <v>7.765668102806535</v>
       </c>
       <c r="D20">
-        <v>72.76462750874903</v>
+        <v>139.8649426964577</v>
       </c>
       <c r="E20">
-        <v>78.25931583142776</v>
+        <v>150.4265891131036</v>
       </c>
       <c r="F20">
-        <v>52.68512378526619</v>
+        <v>101.2690103896434</v>
       </c>
       <c r="G20">
-        <v>142.5287974410334</v>
+        <v>273.9625387938426</v>
       </c>
       <c r="H20">
-        <v>7.212305999756691</v>
+        <v>13.86317500552035</v>
       </c>
       <c r="I20">
-        <v>612.3321390566324</v>
+        <v>1176.997704414245</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,28 +959,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>279.9362587747858</v>
+        <v>538.0810722557254</v>
       </c>
       <c r="C21">
-        <v>7.406818434504466</v>
+        <v>14.23705818847865</v>
       </c>
       <c r="D21">
-        <v>44.09977424772669</v>
+        <v>84.76663193724713</v>
       </c>
       <c r="E21">
-        <v>58.13549176048919</v>
+        <v>111.7454661983056</v>
       </c>
       <c r="F21">
-        <v>45.94632888249959</v>
+        <v>88.31599743282855</v>
       </c>
       <c r="G21">
-        <v>132.6992252037207</v>
+        <v>255.0685706011639</v>
       </c>
       <c r="H21">
-        <v>7.212305999756691</v>
+        <v>13.86317500552035</v>
       </c>
       <c r="I21">
-        <v>575.436203303483</v>
+        <v>1106.077971619269</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -988,28 +988,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>218.7839515924782</v>
+        <v>420.5368171328473</v>
       </c>
       <c r="C22">
-        <v>4.713429912866479</v>
+        <v>9.059946119940959</v>
       </c>
       <c r="D22">
-        <v>61.73968394681738</v>
+        <v>118.6732847121459</v>
       </c>
       <c r="E22">
-        <v>58.13549176048919</v>
+        <v>111.7454661983056</v>
       </c>
       <c r="F22">
-        <v>53.91035922213285</v>
+        <v>103.6241036545188</v>
       </c>
       <c r="G22">
-        <v>167.102728034315</v>
+        <v>321.1974592755396</v>
       </c>
       <c r="H22">
-        <v>6.010254999797243</v>
+        <v>11.55264583793362</v>
       </c>
       <c r="I22">
-        <v>570.3958994688963</v>
+        <v>1096.389722931232</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>154.2207587506</v>
+        <v>296.4363087361829</v>
       </c>
       <c r="C23">
-        <v>11.44690121696145</v>
+        <v>22.00272629128519</v>
       </c>
       <c r="D23">
-        <v>50.71474038488569</v>
+        <v>97.48162672783418</v>
       </c>
       <c r="E23">
-        <v>22.35980452326507</v>
+        <v>42.97902546088675</v>
       </c>
       <c r="F23">
-        <v>66.16271359079938</v>
+        <v>127.1750363032731</v>
       </c>
       <c r="G23">
-        <v>164.6453349749868</v>
+        <v>316.4739672273698</v>
       </c>
       <c r="H23">
-        <v>7.212305999756691</v>
+        <v>13.86317500552035</v>
       </c>
       <c r="I23">
-        <v>476.7625594412551</v>
+        <v>916.4118657523524</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>157.1443750302321</v>
+        <v>302.055954399428</v>
       </c>
       <c r="C24">
-        <v>4.040082782456983</v>
+        <v>7.765668102806535</v>
       </c>
       <c r="D24">
-        <v>59.53469523443104</v>
+        <v>114.4349531152836</v>
       </c>
       <c r="E24">
-        <v>33.5397067848976</v>
+        <v>64.46853819133013</v>
       </c>
       <c r="F24">
-        <v>61.26177184333278</v>
+        <v>117.7546632437714</v>
       </c>
       <c r="G24">
-        <v>147.4435835596897</v>
+        <v>283.409522890182</v>
       </c>
       <c r="H24">
-        <v>3.606152999878346</v>
+        <v>6.931587502760173</v>
       </c>
       <c r="I24">
-        <v>466.5703682349185</v>
+        <v>896.8208874455618</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>147.8862568113968</v>
+        <v>284.2604097991519</v>
       </c>
       <c r="C25">
-        <v>8.753512695323463</v>
+        <v>16.82561422274749</v>
       </c>
       <c r="D25">
-        <v>39.68979682295402</v>
+        <v>76.28996874352241</v>
       </c>
       <c r="E25">
-        <v>29.06774588024459</v>
+        <v>55.87273309915278</v>
       </c>
       <c r="F25">
-        <v>38.59491626129965</v>
+        <v>74.18543784357597</v>
       </c>
       <c r="G25">
-        <v>108.1252946104391</v>
+        <v>207.8336501194669</v>
       </c>
       <c r="H25">
-        <v>2.404101999918897</v>
+        <v>4.621058335173449</v>
       </c>
       <c r="I25">
-        <v>374.5216250815765</v>
+        <v>719.8888721627909</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>171.0315523584852</v>
+        <v>328.7492712998429</v>
       </c>
       <c r="C26">
-        <v>4.713429912866479</v>
+        <v>9.059946119940959</v>
       </c>
       <c r="D26">
-        <v>61.73968394681738</v>
+        <v>118.6732847121459</v>
       </c>
       <c r="E26">
-        <v>24.59578497559158</v>
+        <v>47.27692800697542</v>
       </c>
       <c r="F26">
-        <v>60.03653640646614</v>
+        <v>115.399569978896</v>
       </c>
       <c r="G26">
-        <v>120.4122599070799</v>
+        <v>231.4511103603152</v>
       </c>
       <c r="H26">
-        <v>6.010254999797243</v>
+        <v>11.55264583793362</v>
       </c>
       <c r="I26">
-        <v>448.539502507104</v>
+        <v>862.16275631605</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>165.6715891791595</v>
+        <v>318.4465875838936</v>
       </c>
       <c r="C27">
-        <v>5.386777043275977</v>
+        <v>10.35422413707538</v>
       </c>
       <c r="D27">
-        <v>48.50975167249935</v>
+        <v>93.24329513097182</v>
       </c>
       <c r="E27">
-        <v>22.35980452326507</v>
+        <v>42.97902546088675</v>
       </c>
       <c r="F27">
-        <v>36.75706310599966</v>
+        <v>70.65279794626284</v>
       </c>
       <c r="G27">
-        <v>130.2418321443926</v>
+        <v>250.3450785529941</v>
       </c>
       <c r="H27">
-        <v>2.404101999918897</v>
+        <v>4.621058335173449</v>
       </c>
       <c r="I27">
-        <v>411.330919668511</v>
+        <v>790.642067147258</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>182.7260174770142</v>
+        <v>351.2278539528235</v>
       </c>
       <c r="C28">
-        <v>7.406818434504466</v>
+        <v>14.23705818847865</v>
       </c>
       <c r="D28">
-        <v>81.58458235829438</v>
+        <v>156.8182690839071</v>
       </c>
       <c r="E28">
-        <v>38.01166768955061</v>
+        <v>73.06434328350745</v>
       </c>
       <c r="F28">
-        <v>54.52297694056618</v>
+        <v>104.8016502869565</v>
       </c>
       <c r="G28">
-        <v>115.4974737884236</v>
+        <v>222.0041262639758</v>
       </c>
       <c r="H28">
-        <v>4.808203999837795</v>
+        <v>9.242116670346897</v>
       </c>
       <c r="I28">
-        <v>484.5577406881912</v>
+        <v>931.3954177299962</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>262.1509264070228</v>
+        <v>503.8948944709843</v>
       </c>
       <c r="C29">
-        <v>8.080165564913965</v>
+        <v>15.53133620561307</v>
       </c>
       <c r="D29">
-        <v>90.40453720783972</v>
+        <v>173.7715954713566</v>
       </c>
       <c r="E29">
-        <v>44.71960904653014</v>
+        <v>85.95805092177349</v>
       </c>
       <c r="F29">
-        <v>58.19868325116614</v>
+        <v>111.8669300815828</v>
       </c>
       <c r="G29">
-        <v>78.63657789850114</v>
+        <v>151.1517455414304</v>
       </c>
       <c r="H29">
-        <v>6.010254999797243</v>
+        <v>11.55264583793362</v>
       </c>
       <c r="I29">
-        <v>548.2007543757711</v>
+        <v>1053.727198530674</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>297.2343217626096</v>
+        <v>571.3306424299262</v>
       </c>
       <c r="C30">
-        <v>9.426859825732958</v>
+        <v>18.11989223988192</v>
       </c>
       <c r="D30">
-        <v>88.19954849545337</v>
+        <v>169.5332638744943</v>
       </c>
       <c r="E30">
-        <v>51.42755040350966</v>
+        <v>98.85175856003951</v>
       </c>
       <c r="F30">
-        <v>37.98229854286633</v>
+        <v>73.00789121113827</v>
       </c>
       <c r="G30">
-        <v>56.5200403645477</v>
+        <v>108.6403171079031</v>
       </c>
       <c r="H30">
-        <v>6.010254999797243</v>
+        <v>11.55264583793362</v>
       </c>
       <c r="I30">
-        <v>546.8008743945168</v>
+        <v>1051.036411261317</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>278.7180853249388</v>
+        <v>535.7395532293735</v>
       </c>
       <c r="C31">
-        <v>6.733471304094972</v>
+        <v>12.94278017134423</v>
       </c>
       <c r="D31">
-        <v>94.81451463261237</v>
+        <v>182.2482586650814</v>
       </c>
       <c r="E31">
-        <v>71.5513744744482</v>
+        <v>137.5328814748376</v>
       </c>
       <c r="F31">
-        <v>29.40565048479973</v>
+        <v>56.52223835701027</v>
       </c>
       <c r="G31">
-        <v>90.92354319514197</v>
+        <v>174.7692057822788</v>
       </c>
       <c r="H31">
-        <v>2.404101999918897</v>
+        <v>4.621058335173449</v>
       </c>
       <c r="I31">
-        <v>574.550741415955</v>
+        <v>1104.375976015099</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,25 +1278,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>177.3660542976884</v>
+        <v>340.9251702368741</v>
       </c>
       <c r="C32">
-        <v>5.386777043275977</v>
+        <v>10.35422413707538</v>
       </c>
       <c r="D32">
-        <v>90.40453720783972</v>
+        <v>173.7715954713566</v>
       </c>
       <c r="E32">
-        <v>60.3714722128157</v>
+        <v>116.0433687443942</v>
       </c>
       <c r="F32">
-        <v>25.72994417419977</v>
+        <v>49.45695856238399</v>
       </c>
       <c r="G32">
-        <v>103.2105084917828</v>
+        <v>198.3866660231273</v>
       </c>
       <c r="I32">
-        <v>462.4692934276023</v>
+        <v>888.9379831752116</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1304,25 +1304,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>112.071957385902</v>
+        <v>215.4197504243984</v>
       </c>
       <c r="C33">
-        <v>8.080165564913965</v>
+        <v>15.53133620561307</v>
       </c>
       <c r="D33">
-        <v>46.30476296011302</v>
+        <v>89.00496353410944</v>
       </c>
       <c r="E33">
-        <v>71.5513744744482</v>
+        <v>137.5328814748376</v>
       </c>
       <c r="F33">
-        <v>14.09020752396654</v>
+        <v>27.08357254606742</v>
       </c>
       <c r="G33">
-        <v>88.46615013581381</v>
+        <v>170.0457137341091</v>
       </c>
       <c r="I33">
-        <v>340.5646180451575</v>
+        <v>654.6182179191351</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>94.77389439807803</v>
+        <v>182.1701802501978</v>
       </c>
       <c r="C34">
-        <v>4.713429912866479</v>
+        <v>9.059946119940959</v>
       </c>
       <c r="D34">
-        <v>22.04988712386334</v>
+        <v>42.38331596862356</v>
       </c>
       <c r="E34">
-        <v>22.35980452326507</v>
+        <v>42.97902546088675</v>
       </c>
       <c r="F34">
-        <v>12.25235436866656</v>
+        <v>23.55093264875428</v>
       </c>
       <c r="G34">
-        <v>76.179184839173</v>
+        <v>146.4282534932607</v>
       </c>
       <c r="H34">
-        <v>1.202050999959449</v>
+        <v>2.310529167586724</v>
       </c>
       <c r="I34">
-        <v>233.5306061658719</v>
+        <v>448.8821831092507</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,28 +1359,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>75.03948451056047</v>
+        <v>144.2375720232928</v>
       </c>
       <c r="C35">
-        <v>6.060124173685475</v>
+        <v>11.6485021542098</v>
       </c>
       <c r="D35">
-        <v>24.25487583624967</v>
+        <v>46.62164756548591</v>
       </c>
       <c r="E35">
-        <v>31.3037263325711</v>
+        <v>60.17063564524145</v>
       </c>
       <c r="F35">
-        <v>15.92806067926652</v>
+        <v>30.61621244338055</v>
       </c>
       <c r="G35">
-        <v>81.09397095782931</v>
+        <v>155.8752375896001</v>
       </c>
       <c r="H35">
-        <v>1.202050999959449</v>
+        <v>2.310529167586724</v>
       </c>
       <c r="I35">
-        <v>234.882293490122</v>
+        <v>451.4803365887973</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,25 +1388,25 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>38.73791570512698</v>
+        <v>74.46030503799864</v>
       </c>
       <c r="C36">
-        <v>4.713429912866479</v>
+        <v>9.059946119940959</v>
       </c>
       <c r="D36">
-        <v>13.22993227431801</v>
+        <v>25.42998958117412</v>
       </c>
       <c r="E36">
-        <v>15.65186316628555</v>
+        <v>30.08531782262072</v>
       </c>
       <c r="F36">
-        <v>7.351412621199932</v>
+        <v>14.13055958925257</v>
       </c>
       <c r="G36">
-        <v>39.31828894925057</v>
+        <v>75.57587277071518</v>
       </c>
       <c r="I36">
-        <v>119.0028426290475</v>
+        <v>228.7419909217022</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1414,28 +1414,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>23.63256492702715</v>
+        <v>45.42546911123186</v>
       </c>
       <c r="C37">
-        <v>6.060124173685475</v>
+        <v>11.6485021542098</v>
       </c>
       <c r="D37">
-        <v>4.409977424772668</v>
+        <v>8.476663193724709</v>
       </c>
       <c r="E37">
-        <v>11.17990226163253</v>
+        <v>21.48951273044337</v>
       </c>
       <c r="F37">
-        <v>7.964030339633262</v>
+        <v>15.30810622169028</v>
       </c>
       <c r="G37">
-        <v>24.57393059328162</v>
+        <v>47.23492048169699</v>
       </c>
       <c r="H37">
-        <v>1.202050999959449</v>
+        <v>2.310529167586724</v>
       </c>
       <c r="I37">
-        <v>79.02258071999216</v>
+        <v>151.8937030605838</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1443,25 +1443,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>11.45083042855956</v>
+        <v>22.0102788477103</v>
       </c>
       <c r="C38">
-        <v>6.733471304094972</v>
+        <v>12.94278017134423</v>
       </c>
       <c r="D38">
-        <v>4.409977424772668</v>
+        <v>8.476663193724709</v>
       </c>
       <c r="E38">
-        <v>11.17990226163253</v>
+        <v>21.48951273044337</v>
       </c>
       <c r="F38">
-        <v>5.51355946589995</v>
+        <v>10.59791969193942</v>
       </c>
       <c r="G38">
-        <v>27.03132365260977</v>
+        <v>51.95841252986671</v>
       </c>
       <c r="I38">
-        <v>66.31906453756946</v>
+        <v>127.4755671650288</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>8.770848838896677</v>
+        <v>16.85893698973553</v>
       </c>
       <c r="C39">
-        <v>2.020041391228491</v>
+        <v>3.882834051403267</v>
       </c>
       <c r="F39">
-        <v>3.063088592166639</v>
+        <v>5.887733162188569</v>
       </c>
       <c r="G39">
-        <v>27.03132365260977</v>
+        <v>51.95841252986671</v>
       </c>
       <c r="I39">
-        <v>40.88530247490158</v>
+        <v>78.58791673319408</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,22 +1489,22 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>8.527214148927323</v>
+        <v>16.39063318446509</v>
       </c>
       <c r="C40">
-        <v>2.693388521637988</v>
+        <v>5.17711206853769</v>
       </c>
       <c r="E40">
-        <v>4.471960904653012</v>
+        <v>8.595805092177351</v>
       </c>
       <c r="F40">
-        <v>5.51355946589995</v>
+        <v>10.59791969193942</v>
       </c>
       <c r="G40">
-        <v>51.60525424589139</v>
+        <v>99.19333301156364</v>
       </c>
       <c r="I40">
-        <v>72.81137728700966</v>
+        <v>139.9548030486832</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1512,25 +1512,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>18.75987112764012</v>
+        <v>36.05939300582321</v>
       </c>
       <c r="C41">
-        <v>1.346694260818994</v>
+        <v>2.588556034268845</v>
       </c>
       <c r="D41">
-        <v>8.819954849545336</v>
+        <v>16.95332638744942</v>
       </c>
       <c r="E41">
-        <v>8.943921809306024</v>
+        <v>17.1916101843547</v>
       </c>
       <c r="F41">
-        <v>11.0271189317999</v>
+        <v>21.19583938387885</v>
       </c>
       <c r="G41">
-        <v>98.29572237312647</v>
+        <v>188.939681926788</v>
       </c>
       <c r="I41">
-        <v>147.1932833522368</v>
+        <v>282.928406922563</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>41.66153198475923</v>
+        <v>80.07995070124379</v>
       </c>
       <c r="C42">
-        <v>4.040082782456983</v>
+        <v>7.765668102806535</v>
       </c>
       <c r="D42">
-        <v>19.84489841147701</v>
+        <v>38.1449843717612</v>
       </c>
       <c r="E42">
-        <v>31.3037263325711</v>
+        <v>60.17063564524145</v>
       </c>
       <c r="F42">
-        <v>15.3154429608332</v>
+        <v>29.43866581094285</v>
       </c>
       <c r="G42">
-        <v>125.3270460257362</v>
+        <v>240.8980944566547</v>
       </c>
       <c r="H42">
-        <v>2.404101999918897</v>
+        <v>4.621058335173449</v>
       </c>
       <c r="I42">
-        <v>239.8968304977527</v>
+        <v>461.1190574238239</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>138.6281385925614</v>
+        <v>266.4648651988754</v>
       </c>
       <c r="C43">
-        <v>3.366735652047486</v>
+        <v>6.471390085672115</v>
       </c>
       <c r="D43">
-        <v>26.45986454863601</v>
+        <v>50.85997916234825</v>
       </c>
       <c r="E43">
-        <v>100.6191203546928</v>
+        <v>193.4056145739903</v>
       </c>
       <c r="F43">
-        <v>39.82015169816631</v>
+        <v>76.5405311084514</v>
       </c>
       <c r="G43">
-        <v>191.6766586275966</v>
+        <v>368.4323797572365</v>
       </c>
       <c r="I43">
-        <v>500.5706694737006</v>
+        <v>962.174759886574</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>250.7000959784634</v>
+        <v>481.884615623274</v>
       </c>
       <c r="C44">
-        <v>4.040082782456983</v>
+        <v>7.765668102806535</v>
       </c>
       <c r="D44">
-        <v>66.14966137159001</v>
+        <v>127.1499479058707</v>
       </c>
       <c r="E44">
-        <v>80.49529628375423</v>
+        <v>154.7244916591924</v>
       </c>
       <c r="F44">
-        <v>49.00941747466623</v>
+        <v>94.20373059501711</v>
       </c>
       <c r="G44">
-        <v>174.4749072122995</v>
+        <v>335.3679354200488</v>
       </c>
       <c r="H44">
-        <v>7.212305999756691</v>
+        <v>13.86317500552035</v>
       </c>
       <c r="I44">
-        <v>632.081767102987</v>
+        <v>1214.95956431173</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>274.3326609054906</v>
+        <v>527.3100847345057</v>
       </c>
       <c r="C45">
-        <v>6.733471304094972</v>
+        <v>12.94278017134423</v>
       </c>
       <c r="D45">
-        <v>61.73968394681738</v>
+        <v>118.6732847121459</v>
       </c>
       <c r="E45">
-        <v>53.66353085583616</v>
+        <v>103.1496611061282</v>
       </c>
       <c r="F45">
-        <v>39.20753397973298</v>
+        <v>75.36298447601371</v>
       </c>
       <c r="G45">
-        <v>127.7844390850644</v>
+        <v>245.6215865048244</v>
       </c>
       <c r="H45">
-        <v>4.808203999837795</v>
+        <v>9.242116670346897</v>
       </c>
       <c r="I45">
-        <v>568.2695240768742</v>
+        <v>1092.302498375309</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>206.6022170940106</v>
+        <v>397.1216268693256</v>
       </c>
       <c r="C46">
-        <v>10.10020695614246</v>
+        <v>19.41417025701634</v>
       </c>
       <c r="D46">
-        <v>63.94467265920368</v>
+        <v>122.9116163090083</v>
       </c>
       <c r="E46">
-        <v>49.19156995118315</v>
+        <v>94.55385601395083</v>
       </c>
       <c r="F46">
-        <v>47.17156431936625</v>
+        <v>90.67109069770396</v>
       </c>
       <c r="G46">
-        <v>176.9323002716276</v>
+        <v>340.0914274682183</v>
       </c>
       <c r="H46">
-        <v>4.808203999837795</v>
+        <v>9.242116670346897</v>
       </c>
       <c r="I46">
-        <v>558.7507352513716</v>
+        <v>1074.00590428557</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>156.413470960324</v>
+        <v>300.651042983617</v>
       </c>
       <c r="C47">
-        <v>6.733471304094972</v>
+        <v>12.94278017134423</v>
       </c>
       <c r="D47">
-        <v>61.73968394681738</v>
+        <v>118.6732847121459</v>
       </c>
       <c r="E47">
-        <v>35.7756872372241</v>
+        <v>68.7664407374188</v>
       </c>
       <c r="F47">
-        <v>58.19868325116614</v>
+        <v>111.8669300815828</v>
       </c>
       <c r="G47">
-        <v>174.4749072122995</v>
+        <v>335.3679354200488</v>
       </c>
       <c r="H47">
-        <v>6.010254999797243</v>
+        <v>11.55264583793362</v>
       </c>
       <c r="I47">
-        <v>499.3461589117233</v>
+        <v>959.8210599440911</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>152.0280465408757</v>
+        <v>292.2215744887491</v>
       </c>
       <c r="C48">
-        <v>4.713429912866479</v>
+        <v>9.059946119940959</v>
       </c>
       <c r="D48">
-        <v>48.50975167249935</v>
+        <v>93.24329513097182</v>
       </c>
       <c r="E48">
-        <v>38.01166768955061</v>
+        <v>73.06434328350745</v>
       </c>
       <c r="F48">
-        <v>55.74821237743284</v>
+        <v>107.156743551832</v>
       </c>
       <c r="G48">
-        <v>125.3270460257362</v>
+        <v>240.8980944566547</v>
       </c>
       <c r="H48">
-        <v>4.808203999837795</v>
+        <v>9.242116670346897</v>
       </c>
       <c r="I48">
-        <v>429.1463582187989</v>
+        <v>824.8861137020029</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>156.9007403402628</v>
+        <v>301.5876505941578</v>
       </c>
       <c r="C49">
-        <v>10.77355408655195</v>
+        <v>20.70844827415076</v>
       </c>
       <c r="D49">
-        <v>48.50975167249935</v>
+        <v>93.24329513097182</v>
       </c>
       <c r="E49">
-        <v>29.06774588024459</v>
+        <v>55.87273309915278</v>
       </c>
       <c r="F49">
-        <v>45.94632888249959</v>
+        <v>88.31599743282855</v>
       </c>
       <c r="G49">
-        <v>100.7531154324546</v>
+        <v>193.6631739749576</v>
       </c>
       <c r="H49">
-        <v>2.404101999918897</v>
+        <v>4.621058335173449</v>
       </c>
       <c r="I49">
-        <v>394.3553382944319</v>
+        <v>758.0123568413927</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_재비산_TSP.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>139.830264248458</v>
+        <v>81.51345636809339</v>
       </c>
       <c r="C2">
-        <v>5.721434599108244</v>
+        <v>3.335285905836743</v>
       </c>
       <c r="D2">
-        <v>30.65858556982676</v>
+        <v>17.8722917430308</v>
       </c>
       <c r="E2">
-        <v>20.72633377366127</v>
+        <v>12.08232790526611</v>
       </c>
       <c r="F2">
-        <v>49.68806584538579</v>
+        <v>28.96544613622489</v>
       </c>
       <c r="G2">
-        <v>108.1988692529339</v>
+        <v>63.0740695179894</v>
       </c>
       <c r="H2">
-        <v>1.857060826284657</v>
+        <v>1.082565690981444</v>
       </c>
       <c r="I2">
-        <v>356.6806141156587</v>
+        <v>207.9254432674228</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>138.8892799668399</v>
+        <v>80.96491359307254</v>
       </c>
       <c r="C3">
-        <v>5.201304181007494</v>
+        <v>3.032078096215221</v>
       </c>
       <c r="D3">
-        <v>64.72368064741205</v>
+        <v>37.73039367973168</v>
       </c>
       <c r="E3">
-        <v>20.72633377366127</v>
+        <v>12.08232790526611</v>
       </c>
       <c r="F3">
-        <v>40.22367235102658</v>
+        <v>23.44821830075348</v>
       </c>
       <c r="G3">
-        <v>93.01306304199589</v>
+        <v>54.22156853300844</v>
       </c>
       <c r="H3">
-        <v>2.785591239426986</v>
+        <v>1.623848536472165</v>
       </c>
       <c r="I3">
-        <v>365.5629252013702</v>
+        <v>213.1033486445197</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>147.1699416450797</v>
+        <v>85.79209001325576</v>
       </c>
       <c r="C4">
-        <v>10.40260836201499</v>
+        <v>6.064156192430442</v>
       </c>
       <c r="D4">
-        <v>51.09764261637793</v>
+        <v>29.78715290505132</v>
       </c>
       <c r="E4">
-        <v>25.9079172170766</v>
+        <v>15.10290988158264</v>
       </c>
       <c r="F4">
-        <v>36.43791495328291</v>
+        <v>21.24132716656492</v>
       </c>
       <c r="G4">
-        <v>85.42015993652679</v>
+        <v>49.79531804051796</v>
       </c>
       <c r="H4">
-        <v>6.499712891996301</v>
+        <v>3.788979918435052</v>
       </c>
       <c r="I4">
-        <v>362.9358976223552</v>
+        <v>211.5719341178381</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>193.2781714443694</v>
+        <v>112.6706859892758</v>
       </c>
       <c r="C5">
-        <v>3.640912926705246</v>
+        <v>2.122454667350655</v>
       </c>
       <c r="D5">
-        <v>83.45948294008396</v>
+        <v>48.65234974491717</v>
       </c>
       <c r="E5">
-        <v>36.27108410390723</v>
+        <v>21.14407383421569</v>
       </c>
       <c r="F5">
-        <v>37.85757397743679</v>
+        <v>22.06891134188563</v>
       </c>
       <c r="G5">
-        <v>49.35387018554881</v>
+        <v>28.77062820118815</v>
       </c>
       <c r="H5">
-        <v>2.785591239426986</v>
+        <v>1.623848536472165</v>
       </c>
       <c r="I5">
-        <v>406.6466868174785</v>
+        <v>237.0529523153053</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>250.113622054106</v>
+        <v>145.8026696005331</v>
       </c>
       <c r="C6">
-        <v>2.600652090503747</v>
+        <v>1.51603904810761</v>
       </c>
       <c r="D6">
-        <v>71.53669966292911</v>
+        <v>41.70201406707184</v>
       </c>
       <c r="E6">
-        <v>43.179862028461</v>
+        <v>25.17151646930439</v>
       </c>
       <c r="F6">
-        <v>31.70571820610331</v>
+        <v>18.48271324882922</v>
       </c>
       <c r="G6">
-        <v>53.15032173828333</v>
+        <v>30.98375344743338</v>
       </c>
       <c r="H6">
-        <v>2.785591239426986</v>
+        <v>1.623848536472165</v>
       </c>
       <c r="I6">
-        <v>455.0724670198135</v>
+        <v>265.2825544177517</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>212.0978570767325</v>
+        <v>123.6415414896921</v>
       </c>
       <c r="C7">
-        <v>2.600652090503747</v>
+        <v>1.51603904810761</v>
       </c>
       <c r="D7">
-        <v>42.5813688469816</v>
+        <v>24.8226274208761</v>
       </c>
       <c r="E7">
-        <v>53.54302891529161</v>
+        <v>31.21268042193744</v>
       </c>
       <c r="F7">
-        <v>22.24132471174411</v>
+        <v>12.96548541335781</v>
       </c>
       <c r="G7">
-        <v>49.35387018554881</v>
+        <v>28.77062820118815</v>
       </c>
       <c r="H7">
-        <v>4.642652065711642</v>
+        <v>2.706414227453608</v>
       </c>
       <c r="I7">
-        <v>387.0607538925141</v>
+        <v>225.6354162226128</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>150.1810913462577</v>
+        <v>87.5474268933223</v>
       </c>
       <c r="C8">
-        <v>6.241565017208993</v>
+        <v>3.638493715458265</v>
       </c>
       <c r="D8">
-        <v>28.95533081594749</v>
+        <v>16.87938664619575</v>
       </c>
       <c r="E8">
-        <v>32.81669514163035</v>
+        <v>19.13035251667133</v>
       </c>
       <c r="F8">
-        <v>12.77693121738491</v>
+        <v>7.448257577886398</v>
       </c>
       <c r="G8">
-        <v>81.62370838379228</v>
+        <v>47.5821927942727</v>
       </c>
       <c r="H8">
-        <v>1.857060826284657</v>
+        <v>1.082565690981444</v>
       </c>
       <c r="I8">
-        <v>314.4523827485064</v>
+        <v>183.3086758347882</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>93.34564073652118</v>
+        <v>54.41544328206503</v>
       </c>
       <c r="C9">
-        <v>3.120782508604496</v>
+        <v>1.819246857729133</v>
       </c>
       <c r="D9">
-        <v>30.65858556982676</v>
+        <v>17.8722917430308</v>
       </c>
       <c r="E9">
-        <v>50.08863995301475</v>
+        <v>29.19895910439309</v>
       </c>
       <c r="F9">
-        <v>13.25015089210287</v>
+        <v>7.724118969659971</v>
       </c>
       <c r="G9">
-        <v>87.31838571289406</v>
+        <v>50.90188066364059</v>
       </c>
       <c r="H9">
-        <v>0.9285304131423285</v>
+        <v>0.5412828454907218</v>
       </c>
       <c r="I9">
-        <v>278.7107157861064</v>
+        <v>162.4732234660093</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,25 +670,25 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>75.8433330984234</v>
+        <v>44.21254766667783</v>
       </c>
       <c r="C10">
-        <v>5.721434599108244</v>
+        <v>3.335285905836743</v>
       </c>
       <c r="D10">
-        <v>13.62603803103412</v>
+        <v>7.943240774680351</v>
       </c>
       <c r="E10">
-        <v>13.81755584910751</v>
+        <v>8.054885270177405</v>
       </c>
       <c r="F10">
-        <v>8.044734470205318</v>
+        <v>4.689643660150697</v>
       </c>
       <c r="G10">
-        <v>53.15032173828333</v>
+        <v>30.98375344743338</v>
       </c>
       <c r="I10">
-        <v>170.2034177861619</v>
+        <v>99.21935672495641</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,25 +696,25 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>49.87216692576231</v>
+        <v>29.07276707610328</v>
       </c>
       <c r="C11">
-        <v>1.560391254302248</v>
+        <v>0.9096234288645663</v>
       </c>
       <c r="D11">
-        <v>5.109764261637793</v>
+        <v>2.978715290505132</v>
       </c>
       <c r="E11">
-        <v>22.45352825479972</v>
+        <v>13.08918856403828</v>
       </c>
       <c r="F11">
-        <v>5.678636096615517</v>
+        <v>3.310336701282845</v>
       </c>
       <c r="G11">
-        <v>56.94677329101788</v>
+        <v>33.19687869367863</v>
       </c>
       <c r="I11">
-        <v>141.6212600841355</v>
+        <v>82.55750975447273</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -722,28 +722,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>28.2295284485447</v>
+        <v>16.45628325062451</v>
       </c>
       <c r="C12">
-        <v>4.681173762906743</v>
+        <v>2.728870286593699</v>
       </c>
       <c r="D12">
-        <v>3.406509507758529</v>
+        <v>1.985810193670088</v>
       </c>
       <c r="E12">
-        <v>13.81755584910751</v>
+        <v>8.054885270177405</v>
       </c>
       <c r="F12">
-        <v>2.839318048307759</v>
+        <v>1.655168350641422</v>
       </c>
       <c r="G12">
-        <v>17.08403198730536</v>
+        <v>9.959063608103593</v>
       </c>
       <c r="H12">
-        <v>0.9285304131423285</v>
+        <v>0.5412828454907218</v>
       </c>
       <c r="I12">
-        <v>70.98664801707294</v>
+        <v>41.38136380530143</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,25 +751,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>17.12591392545045</v>
+        <v>9.983478505378867</v>
       </c>
       <c r="C13">
-        <v>2.080521672402997</v>
+        <v>1.212831238486088</v>
       </c>
       <c r="D13">
-        <v>3.406509507758529</v>
+        <v>1.985810193670088</v>
       </c>
       <c r="E13">
-        <v>8.635972405692197</v>
+        <v>5.034303293860876</v>
       </c>
       <c r="F13">
-        <v>2.839318048307759</v>
+        <v>1.655168350641422</v>
       </c>
       <c r="G13">
-        <v>15.1858062109381</v>
+        <v>8.852500984980969</v>
       </c>
       <c r="I13">
-        <v>49.27404177055003</v>
+        <v>28.72409256701831</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -777,25 +777,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>9.974433385152464</v>
+        <v>5.814553415220659</v>
       </c>
       <c r="C14">
-        <v>3.120782508604496</v>
+        <v>1.819246857729133</v>
       </c>
       <c r="D14">
-        <v>5.109764261637793</v>
+        <v>2.978715290505132</v>
       </c>
       <c r="E14">
-        <v>6.908777924553756</v>
+        <v>4.027442635088702</v>
       </c>
       <c r="F14">
-        <v>4.258977072461638</v>
+        <v>2.482752525962133</v>
       </c>
       <c r="G14">
-        <v>28.47338664550894</v>
+        <v>16.59843934683932</v>
       </c>
       <c r="I14">
-        <v>57.84612179791909</v>
+        <v>33.72115007134508</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -803,25 +803,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>4.704921408090782</v>
+        <v>2.742713875104083</v>
       </c>
       <c r="C15">
-        <v>2.600652090503747</v>
+        <v>1.51603904810761</v>
       </c>
       <c r="D15">
-        <v>5.109764261637793</v>
+        <v>2.978715290505132</v>
       </c>
       <c r="E15">
-        <v>1.727194481138439</v>
+        <v>1.006860658772176</v>
       </c>
       <c r="F15">
-        <v>4.258977072461638</v>
+        <v>2.482752525962133</v>
       </c>
       <c r="G15">
-        <v>13.28758043457083</v>
+        <v>7.745938361858346</v>
       </c>
       <c r="I15">
-        <v>31.68908974840323</v>
+        <v>18.47301976030948</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -829,22 +829,22 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>2.634755988530838</v>
+        <v>1.535919770058287</v>
       </c>
       <c r="C16">
-        <v>1.560391254302248</v>
+        <v>0.9096234288645663</v>
       </c>
       <c r="D16">
-        <v>1.703254753879265</v>
+        <v>0.9929050968350439</v>
       </c>
       <c r="F16">
-        <v>1.419659024153879</v>
+        <v>0.8275841753207112</v>
       </c>
       <c r="G16">
-        <v>22.77870931640715</v>
+        <v>13.27875147747146</v>
       </c>
       <c r="I16">
-        <v>30.09677033727338</v>
+        <v>17.54478394855006</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -852,22 +852,22 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>12.79738623000692</v>
+        <v>7.460181740283109</v>
       </c>
       <c r="D17">
-        <v>3.406509507758529</v>
+        <v>1.985810193670088</v>
       </c>
       <c r="E17">
-        <v>6.908777924553756</v>
+        <v>4.027442635088702</v>
       </c>
       <c r="F17">
-        <v>3.785757397743679</v>
+        <v>2.206891134188563</v>
       </c>
       <c r="G17">
-        <v>47.45564440918156</v>
+        <v>27.66406557806553</v>
       </c>
       <c r="I17">
-        <v>74.35407546924445</v>
+        <v>43.34439128129598</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -875,25 +875,25 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>30.86428443707553</v>
+        <v>17.99220302068279</v>
       </c>
       <c r="C18">
-        <v>2.080521672402997</v>
+        <v>1.212831238486088</v>
       </c>
       <c r="D18">
-        <v>6.813019015517058</v>
+        <v>3.971620387340176</v>
       </c>
       <c r="E18">
-        <v>20.72633377366127</v>
+        <v>12.08232790526611</v>
       </c>
       <c r="F18">
-        <v>12.30371154266695</v>
+        <v>7.172396186112829</v>
       </c>
       <c r="G18">
-        <v>106.3006434765667</v>
+        <v>61.96750689486677</v>
       </c>
       <c r="I18">
-        <v>179.0885139178905</v>
+        <v>104.3988856327547</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,28 +901,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>97.48597157564099</v>
+        <v>56.82903149215663</v>
       </c>
       <c r="C19">
-        <v>1.560391254302248</v>
+        <v>0.9096234288645663</v>
       </c>
       <c r="D19">
-        <v>17.03254753879264</v>
+        <v>9.929050968350442</v>
       </c>
       <c r="E19">
-        <v>72.54216820781447</v>
+        <v>42.28814766843138</v>
       </c>
       <c r="F19">
-        <v>24.60742308533391</v>
+        <v>14.34479237222566</v>
       </c>
       <c r="G19">
-        <v>151.858062109381</v>
+        <v>88.52500984980969</v>
       </c>
       <c r="H19">
-        <v>2.785591239426986</v>
+        <v>1.623848536472165</v>
       </c>
       <c r="I19">
-        <v>367.8721550106923</v>
+        <v>214.4495043163105</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -930,28 +930,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>196.8539117145183</v>
+        <v>114.7551485343549</v>
       </c>
       <c r="C20">
-        <v>3.120782508604496</v>
+        <v>1.819246857729133</v>
       </c>
       <c r="D20">
-        <v>56.20740687801572</v>
+        <v>32.76586819555644</v>
       </c>
       <c r="E20">
-        <v>60.45180683984538</v>
+        <v>35.24012305702616</v>
       </c>
       <c r="F20">
-        <v>40.69689202574455</v>
+        <v>23.72407969252705</v>
       </c>
       <c r="G20">
-        <v>110.0970950293012</v>
+        <v>64.18063214111204</v>
       </c>
       <c r="H20">
-        <v>5.571182478853972</v>
+        <v>3.247697072944331</v>
       </c>
       <c r="I20">
-        <v>472.9990774748836</v>
+        <v>275.7327955512501</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,28 +959,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>216.2381879158523</v>
+        <v>126.0551296997837</v>
       </c>
       <c r="C21">
-        <v>5.721434599108244</v>
+        <v>3.335285905836743</v>
       </c>
       <c r="D21">
-        <v>34.06509507758528</v>
+        <v>19.85810193670088</v>
       </c>
       <c r="E21">
-        <v>44.90705650959944</v>
+        <v>26.17837712807655</v>
       </c>
       <c r="F21">
-        <v>35.49147560384699</v>
+        <v>20.68960438301778</v>
       </c>
       <c r="G21">
-        <v>102.5041919238321</v>
+        <v>59.75438164862152</v>
       </c>
       <c r="H21">
-        <v>5.571182478853972</v>
+        <v>3.247697072944331</v>
       </c>
       <c r="I21">
-        <v>444.4986241086783</v>
+        <v>259.1185777749815</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -988,28 +988,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>169.0007769786209</v>
+        <v>98.51828239373873</v>
       </c>
       <c r="C22">
-        <v>3.640912926705246</v>
+        <v>2.122454667350655</v>
       </c>
       <c r="D22">
-        <v>47.69113310861942</v>
+        <v>27.80134271138124</v>
       </c>
       <c r="E22">
-        <v>44.90705650959944</v>
+        <v>26.17837712807655</v>
       </c>
       <c r="F22">
-        <v>41.64333137518047</v>
+        <v>24.2758024760742</v>
       </c>
       <c r="G22">
-        <v>129.0793527929738</v>
+        <v>75.24625837233822</v>
       </c>
       <c r="H22">
-        <v>4.642652065711642</v>
+        <v>2.706414227453608</v>
       </c>
       <c r="I22">
-        <v>440.6052157574109</v>
+        <v>256.8489319764132</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>119.1286100528586</v>
+        <v>69.4455153176354</v>
       </c>
       <c r="C23">
-        <v>8.84221710771274</v>
+        <v>5.154532763565875</v>
       </c>
       <c r="D23">
-        <v>39.17485933922308</v>
+        <v>22.83681722720601</v>
       </c>
       <c r="E23">
-        <v>17.27194481138439</v>
+        <v>10.06860658772175</v>
       </c>
       <c r="F23">
-        <v>51.10772486953964</v>
+        <v>29.79303031154559</v>
       </c>
       <c r="G23">
-        <v>127.1811270166066</v>
+        <v>74.13969574921563</v>
       </c>
       <c r="H23">
-        <v>5.571182478853972</v>
+        <v>3.247697072944331</v>
       </c>
       <c r="I23">
-        <v>368.277665676179</v>
+        <v>214.6858950298346</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>121.3869723287422</v>
+        <v>70.76201797768537</v>
       </c>
       <c r="C24">
-        <v>3.120782508604496</v>
+        <v>1.819246857729133</v>
       </c>
       <c r="D24">
-        <v>45.98787835474013</v>
+        <v>26.80843761454619</v>
       </c>
       <c r="E24">
-        <v>25.9079172170766</v>
+        <v>15.10290988158264</v>
       </c>
       <c r="F24">
-        <v>47.32196747179598</v>
+        <v>27.58613917735705</v>
       </c>
       <c r="G24">
-        <v>113.8935465820358</v>
+        <v>66.39375738735727</v>
       </c>
       <c r="H24">
-        <v>2.785591239426986</v>
+        <v>1.623848536472165</v>
       </c>
       <c r="I24">
-        <v>360.4046557024222</v>
+        <v>210.0963574327298</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>114.2354917884442</v>
+        <v>66.59309288752713</v>
       </c>
       <c r="C25">
-        <v>6.76169543530974</v>
+        <v>3.941701525079786</v>
       </c>
       <c r="D25">
-        <v>30.65858556982676</v>
+        <v>17.8722917430308</v>
       </c>
       <c r="E25">
-        <v>22.45352825479972</v>
+        <v>13.08918856403828</v>
       </c>
       <c r="F25">
-        <v>29.81283950723147</v>
+        <v>17.37926768173493</v>
       </c>
       <c r="G25">
-        <v>83.52193416015955</v>
+        <v>48.68875541739533</v>
       </c>
       <c r="H25">
-        <v>1.857060826284657</v>
+        <v>1.082565690981444</v>
       </c>
       <c r="I25">
-        <v>289.3011355420561</v>
+        <v>168.6468635097877</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>132.1141931391892</v>
+        <v>77.01540561292268</v>
       </c>
       <c r="C26">
-        <v>3.640912926705246</v>
+        <v>2.122454667350655</v>
       </c>
       <c r="D26">
-        <v>47.69113310861942</v>
+        <v>27.80134271138124</v>
       </c>
       <c r="E26">
-        <v>18.99913929252283</v>
+        <v>11.07546724649393</v>
       </c>
       <c r="F26">
-        <v>46.37552812236007</v>
+        <v>27.0344163938099</v>
       </c>
       <c r="G26">
-        <v>93.01306304199589</v>
+        <v>54.22156853300844</v>
       </c>
       <c r="H26">
-        <v>4.642652065711642</v>
+        <v>2.706414227453608</v>
       </c>
       <c r="I26">
-        <v>346.4766216971043</v>
+        <v>201.9770693924205</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>127.9738623000693</v>
+        <v>74.60181740283107</v>
       </c>
       <c r="C27">
-        <v>4.161043344805995</v>
+        <v>2.425662476972176</v>
       </c>
       <c r="D27">
-        <v>37.47160458534383</v>
+        <v>21.84391213037097</v>
       </c>
       <c r="E27">
-        <v>17.27194481138439</v>
+        <v>10.06860658772175</v>
       </c>
       <c r="F27">
-        <v>28.39318048307759</v>
+        <v>16.55168350641422</v>
       </c>
       <c r="G27">
-        <v>100.6059661474649</v>
+        <v>58.64781902549893</v>
       </c>
       <c r="H27">
-        <v>1.857060826284657</v>
+        <v>1.082565690981444</v>
       </c>
       <c r="I27">
-        <v>317.7346624984308</v>
+        <v>185.2220668207906</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>141.1476422427235</v>
+        <v>82.28141625312252</v>
       </c>
       <c r="C28">
-        <v>5.721434599108244</v>
+        <v>3.335285905836743</v>
       </c>
       <c r="D28">
-        <v>63.02042589353278</v>
+        <v>36.73748858289664</v>
       </c>
       <c r="E28">
-        <v>29.36230617935347</v>
+        <v>17.11663119912699</v>
       </c>
       <c r="F28">
-        <v>42.11655104989841</v>
+        <v>24.55166386784776</v>
       </c>
       <c r="G28">
-        <v>89.21661148926134</v>
+        <v>52.00844328676318</v>
       </c>
       <c r="H28">
-        <v>3.714121652569314</v>
+        <v>2.165131381962887</v>
       </c>
       <c r="I28">
-        <v>374.2990931064471</v>
+        <v>218.1960604775567</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>202.4998174042273</v>
+        <v>118.0464051844798</v>
       </c>
       <c r="C29">
-        <v>6.241565017208993</v>
+        <v>3.638493715458265</v>
       </c>
       <c r="D29">
-        <v>69.83344490904985</v>
+        <v>40.70910897023681</v>
       </c>
       <c r="E29">
-        <v>34.54388962276879</v>
+        <v>20.13721317544351</v>
       </c>
       <c r="F29">
-        <v>44.95586909820617</v>
+        <v>26.20683221848918</v>
       </c>
       <c r="G29">
-        <v>60.74322484375239</v>
+        <v>35.41000393992388</v>
       </c>
       <c r="H29">
-        <v>4.642652065711642</v>
+        <v>2.706414227453608</v>
       </c>
       <c r="I29">
-        <v>423.4604629609252</v>
+        <v>246.8544714314851</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>229.6001647148302</v>
+        <v>133.8444371050793</v>
       </c>
       <c r="C30">
-        <v>7.281825853410492</v>
+        <v>4.244909334701311</v>
       </c>
       <c r="D30">
-        <v>68.13019015517057</v>
+        <v>39.71620387340177</v>
       </c>
       <c r="E30">
-        <v>39.72547306618411</v>
+        <v>23.15779515176004</v>
       </c>
       <c r="F30">
-        <v>29.33961983251351</v>
+        <v>17.10340628996136</v>
       </c>
       <c r="G30">
-        <v>43.65919285644703</v>
+        <v>25.45094033182029</v>
       </c>
       <c r="H30">
-        <v>4.642652065711642</v>
+        <v>2.706414227453608</v>
       </c>
       <c r="I30">
-        <v>422.3791185442675</v>
+        <v>246.2241063141776</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>215.2972036342343</v>
+        <v>125.5065869247629</v>
       </c>
       <c r="C31">
-        <v>5.201304181007494</v>
+        <v>3.032078096215221</v>
       </c>
       <c r="D31">
-        <v>73.23995441680836</v>
+        <v>42.6949191639069</v>
       </c>
       <c r="E31">
-        <v>55.27022339643005</v>
+        <v>32.21954108070962</v>
       </c>
       <c r="F31">
-        <v>22.71454438646207</v>
+        <v>13.24134680513138</v>
       </c>
       <c r="G31">
-        <v>70.2343537255887</v>
+        <v>40.94281705553698</v>
       </c>
       <c r="H31">
-        <v>1.857060826284657</v>
+        <v>1.082565690981444</v>
       </c>
       <c r="I31">
-        <v>443.8146445668156</v>
+        <v>258.7198548172444</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,25 +1278,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>137.0073114036036</v>
+        <v>79.86782804303094</v>
       </c>
       <c r="C32">
-        <v>4.161043344805995</v>
+        <v>2.425662476972176</v>
       </c>
       <c r="D32">
-        <v>69.83344490904985</v>
+        <v>40.70910897023681</v>
       </c>
       <c r="E32">
-        <v>46.63425099073786</v>
+        <v>27.18523778684873</v>
       </c>
       <c r="F32">
-        <v>19.87522633815431</v>
+        <v>11.58617845448996</v>
       </c>
       <c r="G32">
-        <v>79.72548260742501</v>
+        <v>46.47563017115009</v>
       </c>
       <c r="I32">
-        <v>357.2367595937766</v>
+        <v>208.2496459027287</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1304,25 +1304,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>86.57055390887041</v>
+        <v>50.46593530191515</v>
       </c>
       <c r="C33">
-        <v>6.241565017208993</v>
+        <v>3.638493715458265</v>
       </c>
       <c r="D33">
-        <v>35.76834983146455</v>
+        <v>20.85100703353592</v>
       </c>
       <c r="E33">
-        <v>55.27022339643005</v>
+        <v>32.21954108070962</v>
       </c>
       <c r="F33">
-        <v>10.88405251851308</v>
+        <v>6.344812010792118</v>
       </c>
       <c r="G33">
-        <v>68.33612794922145</v>
+        <v>39.83625443241437</v>
       </c>
       <c r="I33">
-        <v>263.0708726217085</v>
+        <v>153.3560435748254</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>73.20857710989259</v>
+        <v>42.67662789661955</v>
       </c>
       <c r="C34">
-        <v>3.640912926705246</v>
+        <v>2.122454667350655</v>
       </c>
       <c r="D34">
-        <v>17.03254753879264</v>
+        <v>9.929050968350442</v>
       </c>
       <c r="E34">
-        <v>17.27194481138439</v>
+        <v>10.06860658772175</v>
       </c>
       <c r="F34">
-        <v>9.464393494359197</v>
+        <v>5.517227835471407</v>
       </c>
       <c r="G34">
-        <v>58.84499906738513</v>
+        <v>34.30344131680125</v>
       </c>
       <c r="H34">
-        <v>0.9285304131423285</v>
+        <v>0.5412828454907218</v>
       </c>
       <c r="I34">
-        <v>180.3919053616615</v>
+        <v>105.1586921178058</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,28 +1359,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>57.96463174767847</v>
+        <v>33.79023494128231</v>
       </c>
       <c r="C35">
-        <v>4.681173762906743</v>
+        <v>2.728870286593699</v>
       </c>
       <c r="D35">
-        <v>18.73580229267192</v>
+        <v>10.92195606518549</v>
       </c>
       <c r="E35">
-        <v>24.18072273593816</v>
+        <v>14.09604922281046</v>
       </c>
       <c r="F35">
-        <v>12.30371154266695</v>
+        <v>7.172396186112829</v>
       </c>
       <c r="G35">
-        <v>62.64145062011968</v>
+        <v>36.51656656304649</v>
       </c>
       <c r="H35">
-        <v>0.9285304131423285</v>
+        <v>0.5412828454907218</v>
       </c>
       <c r="I35">
-        <v>181.4360231151243</v>
+        <v>105.767356110522</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,25 +1388,25 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>29.92330015545737</v>
+        <v>17.44366024566197</v>
       </c>
       <c r="C36">
-        <v>3.640912926705246</v>
+        <v>2.122454667350655</v>
       </c>
       <c r="D36">
-        <v>10.21952852327559</v>
+        <v>5.957430581010264</v>
       </c>
       <c r="E36">
-        <v>12.09036136796908</v>
+        <v>7.04802461140523</v>
       </c>
       <c r="F36">
-        <v>5.678636096615517</v>
+        <v>3.310336701282845</v>
       </c>
       <c r="G36">
-        <v>30.37161242187619</v>
+        <v>17.70500196996194</v>
       </c>
       <c r="I36">
-        <v>91.92435149189899</v>
+        <v>53.5869087766729</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1414,28 +1414,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>18.25509506339224</v>
+        <v>10.64172983540385</v>
       </c>
       <c r="C37">
-        <v>4.681173762906743</v>
+        <v>2.728870286593699</v>
       </c>
       <c r="D37">
-        <v>3.406509507758529</v>
+        <v>1.985810193670088</v>
       </c>
       <c r="E37">
-        <v>8.635972405692197</v>
+        <v>5.034303293860876</v>
       </c>
       <c r="F37">
-        <v>6.151855771333477</v>
+        <v>3.586198093056415</v>
       </c>
       <c r="G37">
-        <v>18.98225776367263</v>
+        <v>11.06562623122621</v>
       </c>
       <c r="H37">
-        <v>0.9285304131423285</v>
+        <v>0.5412828454907218</v>
       </c>
       <c r="I37">
-        <v>61.04139468789813</v>
+        <v>35.58382077930185</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1443,25 +1443,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>8.845252247210672</v>
+        <v>5.156302085195676</v>
       </c>
       <c r="C38">
-        <v>5.201304181007494</v>
+        <v>3.032078096215221</v>
       </c>
       <c r="D38">
-        <v>3.406509507758529</v>
+        <v>1.985810193670088</v>
       </c>
       <c r="E38">
-        <v>8.635972405692197</v>
+        <v>5.034303293860876</v>
       </c>
       <c r="F38">
-        <v>4.258977072461638</v>
+        <v>2.482752525962133</v>
       </c>
       <c r="G38">
-        <v>20.88048354003989</v>
+        <v>12.17218885434883</v>
       </c>
       <c r="I38">
-        <v>51.22849895417042</v>
+        <v>29.86343504925282</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>6.775086827650728</v>
+        <v>3.949507980149883</v>
       </c>
       <c r="C39">
-        <v>1.560391254302248</v>
+        <v>0.9096234288645663</v>
       </c>
       <c r="F39">
-        <v>2.366098373589799</v>
+        <v>1.379306958867852</v>
       </c>
       <c r="G39">
-        <v>20.88048354003989</v>
+        <v>12.17218885434883</v>
       </c>
       <c r="I39">
-        <v>31.58205999558266</v>
+        <v>18.41062722223113</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,22 +1489,22 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>6.586889971327095</v>
+        <v>3.839799425145718</v>
       </c>
       <c r="C40">
-        <v>2.080521672402997</v>
+        <v>1.212831238486088</v>
       </c>
       <c r="E40">
-        <v>3.454388962276878</v>
+        <v>2.013721317544351</v>
       </c>
       <c r="F40">
-        <v>4.258977072461638</v>
+        <v>2.482752525962133</v>
       </c>
       <c r="G40">
-        <v>39.8627413037125</v>
+        <v>23.23781508557504</v>
       </c>
       <c r="I40">
-        <v>56.24351898218112</v>
+        <v>32.78691959271333</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1512,25 +1512,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>14.49115793691962</v>
+        <v>8.447558735320579</v>
       </c>
       <c r="C41">
-        <v>1.040260836201499</v>
+        <v>0.6064156192430441</v>
       </c>
       <c r="D41">
-        <v>6.813019015517058</v>
+        <v>3.971620387340176</v>
       </c>
       <c r="E41">
-        <v>6.908777924553756</v>
+        <v>4.027442635088702</v>
       </c>
       <c r="F41">
-        <v>8.517954144923277</v>
+        <v>4.965505051924267</v>
       </c>
       <c r="G41">
-        <v>75.92903105469051</v>
+        <v>44.26250492490485</v>
       </c>
       <c r="I41">
-        <v>113.7002009128057</v>
+        <v>66.28104735382161</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>32.18166243134097</v>
+        <v>18.76016290571193</v>
       </c>
       <c r="C42">
-        <v>3.120782508604496</v>
+        <v>1.819246857729133</v>
       </c>
       <c r="D42">
-        <v>15.32929278491338</v>
+        <v>8.936145871515398</v>
       </c>
       <c r="E42">
-        <v>24.18072273593816</v>
+        <v>14.09604922281046</v>
       </c>
       <c r="F42">
-        <v>11.83049186794899</v>
+        <v>6.896534794339262</v>
       </c>
       <c r="G42">
-        <v>96.8095145947304</v>
+        <v>56.43469377925369</v>
       </c>
       <c r="H42">
-        <v>1.857060826284657</v>
+        <v>1.082565690981444</v>
       </c>
       <c r="I42">
-        <v>185.309527749761</v>
+        <v>108.0253991223413</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>107.0840112481462</v>
+        <v>62.42416779736894</v>
       </c>
       <c r="C43">
-        <v>2.600652090503747</v>
+        <v>1.51603904810761</v>
       </c>
       <c r="D43">
-        <v>20.43905704655117</v>
+        <v>11.91486116202053</v>
       </c>
       <c r="E43">
-        <v>77.72375165122978</v>
+        <v>45.3087296447479</v>
       </c>
       <c r="F43">
-        <v>30.75927885666738</v>
+        <v>17.93099046528208</v>
       </c>
       <c r="G43">
-        <v>148.0616105566465</v>
+        <v>86.31188460356445</v>
       </c>
       <c r="I43">
-        <v>386.6683614497448</v>
+        <v>225.4066727210915</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>193.6545651570167</v>
+        <v>112.8901030992841</v>
       </c>
       <c r="C44">
-        <v>3.120782508604496</v>
+        <v>1.819246857729133</v>
       </c>
       <c r="D44">
-        <v>51.09764261637793</v>
+        <v>29.78715290505132</v>
       </c>
       <c r="E44">
-        <v>62.17900132098384</v>
+        <v>36.24698371579832</v>
       </c>
       <c r="F44">
-        <v>37.85757397743679</v>
+        <v>22.06891134188563</v>
       </c>
       <c r="G44">
-        <v>134.7740301220756</v>
+        <v>78.5659462417061</v>
       </c>
       <c r="H44">
-        <v>5.571182478853972</v>
+        <v>3.247697072944331</v>
       </c>
       <c r="I44">
-        <v>488.2547781813494</v>
+        <v>284.6260412343989</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>211.9096602204088</v>
+        <v>123.5318329346879</v>
       </c>
       <c r="C45">
-        <v>5.201304181007494</v>
+        <v>3.032078096215221</v>
       </c>
       <c r="D45">
-        <v>47.69113310861942</v>
+        <v>27.80134271138124</v>
       </c>
       <c r="E45">
-        <v>41.45266754732254</v>
+        <v>24.16465581053221</v>
       </c>
       <c r="F45">
-        <v>30.28605918194943</v>
+        <v>17.6551290735085</v>
       </c>
       <c r="G45">
-        <v>98.70774037109761</v>
+        <v>57.54125640237629</v>
       </c>
       <c r="H45">
-        <v>3.714121652569314</v>
+        <v>2.165131381962887</v>
       </c>
       <c r="I45">
-        <v>438.9626862629746</v>
+        <v>255.8914264106643</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>159.5909341624394</v>
+        <v>93.03285464353054</v>
       </c>
       <c r="C46">
-        <v>7.801956271511239</v>
+        <v>4.548117144322831</v>
       </c>
       <c r="D46">
-        <v>49.39438786249868</v>
+        <v>28.79424780821627</v>
       </c>
       <c r="E46">
-        <v>37.99827858504567</v>
+        <v>22.15093449298786</v>
       </c>
       <c r="F46">
-        <v>36.43791495328291</v>
+        <v>21.24132716656492</v>
       </c>
       <c r="G46">
-        <v>136.6722558984429</v>
+        <v>79.67250886482874</v>
       </c>
       <c r="H46">
-        <v>3.714121652569314</v>
+        <v>2.165131381962887</v>
       </c>
       <c r="I46">
-        <v>431.6098493857901</v>
+        <v>251.6051215024141</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>120.8223817597713</v>
+        <v>70.43289231267289</v>
       </c>
       <c r="C47">
-        <v>5.201304181007494</v>
+        <v>3.032078096215221</v>
       </c>
       <c r="D47">
-        <v>47.69113310861942</v>
+        <v>27.80134271138124</v>
       </c>
       <c r="E47">
-        <v>27.63511169821502</v>
+        <v>16.10977054035481</v>
       </c>
       <c r="F47">
-        <v>44.95586909820617</v>
+        <v>26.20683221848918</v>
       </c>
       <c r="G47">
-        <v>134.7740301220756</v>
+        <v>78.5659462417061</v>
       </c>
       <c r="H47">
-        <v>4.642652065711642</v>
+        <v>2.706414227453608</v>
       </c>
       <c r="I47">
-        <v>385.7224820336066</v>
+        <v>224.8552763482731</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>117.4348383459459</v>
+        <v>68.45813832259796</v>
       </c>
       <c r="C48">
-        <v>3.640912926705246</v>
+        <v>2.122454667350655</v>
       </c>
       <c r="D48">
-        <v>37.47160458534383</v>
+        <v>21.84391213037097</v>
       </c>
       <c r="E48">
-        <v>29.36230617935347</v>
+        <v>17.11663119912699</v>
       </c>
       <c r="F48">
-        <v>43.06299039933433</v>
+        <v>25.1033866513949</v>
       </c>
       <c r="G48">
-        <v>96.8095145947304</v>
+        <v>56.43469377925369</v>
       </c>
       <c r="H48">
-        <v>3.714121652569314</v>
+        <v>2.165131381962887</v>
       </c>
       <c r="I48">
-        <v>331.4962886839825</v>
+        <v>193.244348132058</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>121.1987754724185</v>
+        <v>70.65230942268121</v>
       </c>
       <c r="C49">
-        <v>8.322086689611989</v>
+        <v>4.851324953944353</v>
       </c>
       <c r="D49">
-        <v>37.47160458534383</v>
+        <v>21.84391213037097</v>
       </c>
       <c r="E49">
-        <v>22.45352825479972</v>
+        <v>13.08918856403828</v>
       </c>
       <c r="F49">
-        <v>35.49147560384699</v>
+        <v>20.68960438301778</v>
       </c>
       <c r="G49">
-        <v>77.82725683105777</v>
+        <v>45.36906754802747</v>
       </c>
       <c r="H49">
-        <v>1.857060826284657</v>
+        <v>1.082565690981444</v>
       </c>
       <c r="I49">
-        <v>304.6217882633635</v>
+        <v>177.5779726930615</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_재비산_TSP.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>81.51345636809339</v>
+        <v>139.830264248458</v>
       </c>
       <c r="C2">
-        <v>3.335285905836743</v>
+        <v>5.721434599108244</v>
       </c>
       <c r="D2">
-        <v>17.8722917430308</v>
+        <v>30.65858556982676</v>
       </c>
       <c r="E2">
-        <v>12.08232790526611</v>
+        <v>20.72633377366127</v>
       </c>
       <c r="F2">
-        <v>28.96544613622489</v>
+        <v>49.68806584538579</v>
       </c>
       <c r="G2">
-        <v>63.0740695179894</v>
+        <v>108.1988692529339</v>
       </c>
       <c r="H2">
-        <v>1.082565690981444</v>
+        <v>1.857060826284657</v>
       </c>
       <c r="I2">
-        <v>207.9254432674228</v>
+        <v>356.6806141156587</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>80.96491359307254</v>
+        <v>138.8892799668399</v>
       </c>
       <c r="C3">
-        <v>3.032078096215221</v>
+        <v>5.201304181007494</v>
       </c>
       <c r="D3">
-        <v>37.73039367973168</v>
+        <v>64.72368064741205</v>
       </c>
       <c r="E3">
-        <v>12.08232790526611</v>
+        <v>20.72633377366127</v>
       </c>
       <c r="F3">
-        <v>23.44821830075348</v>
+        <v>40.22367235102658</v>
       </c>
       <c r="G3">
-        <v>54.22156853300844</v>
+        <v>93.01306304199589</v>
       </c>
       <c r="H3">
-        <v>1.623848536472165</v>
+        <v>2.785591239426986</v>
       </c>
       <c r="I3">
-        <v>213.1033486445197</v>
+        <v>365.5629252013702</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>85.79209001325576</v>
+        <v>147.1699416450797</v>
       </c>
       <c r="C4">
-        <v>6.064156192430442</v>
+        <v>10.40260836201499</v>
       </c>
       <c r="D4">
-        <v>29.78715290505132</v>
+        <v>51.09764261637793</v>
       </c>
       <c r="E4">
-        <v>15.10290988158264</v>
+        <v>25.9079172170766</v>
       </c>
       <c r="F4">
-        <v>21.24132716656492</v>
+        <v>36.43791495328291</v>
       </c>
       <c r="G4">
-        <v>49.79531804051796</v>
+        <v>85.42015993652679</v>
       </c>
       <c r="H4">
-        <v>3.788979918435052</v>
+        <v>6.499712891996301</v>
       </c>
       <c r="I4">
-        <v>211.5719341178381</v>
+        <v>362.9358976223552</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>112.6706859892758</v>
+        <v>193.2781714443694</v>
       </c>
       <c r="C5">
-        <v>2.122454667350655</v>
+        <v>3.640912926705246</v>
       </c>
       <c r="D5">
-        <v>48.65234974491717</v>
+        <v>83.45948294008396</v>
       </c>
       <c r="E5">
-        <v>21.14407383421569</v>
+        <v>36.27108410390723</v>
       </c>
       <c r="F5">
-        <v>22.06891134188563</v>
+        <v>37.85757397743679</v>
       </c>
       <c r="G5">
-        <v>28.77062820118815</v>
+        <v>49.35387018554881</v>
       </c>
       <c r="H5">
-        <v>1.623848536472165</v>
+        <v>2.785591239426986</v>
       </c>
       <c r="I5">
-        <v>237.0529523153053</v>
+        <v>406.6466868174785</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>145.8026696005331</v>
+        <v>250.113622054106</v>
       </c>
       <c r="C6">
-        <v>1.51603904810761</v>
+        <v>2.600652090503747</v>
       </c>
       <c r="D6">
-        <v>41.70201406707184</v>
+        <v>71.53669966292911</v>
       </c>
       <c r="E6">
-        <v>25.17151646930439</v>
+        <v>43.179862028461</v>
       </c>
       <c r="F6">
-        <v>18.48271324882922</v>
+        <v>31.70571820610331</v>
       </c>
       <c r="G6">
-        <v>30.98375344743338</v>
+        <v>53.15032173828333</v>
       </c>
       <c r="H6">
-        <v>1.623848536472165</v>
+        <v>2.785591239426986</v>
       </c>
       <c r="I6">
-        <v>265.2825544177517</v>
+        <v>455.0724670198135</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>123.6415414896921</v>
+        <v>212.0978570767325</v>
       </c>
       <c r="C7">
-        <v>1.51603904810761</v>
+        <v>2.600652090503747</v>
       </c>
       <c r="D7">
-        <v>24.8226274208761</v>
+        <v>42.5813688469816</v>
       </c>
       <c r="E7">
-        <v>31.21268042193744</v>
+        <v>53.54302891529161</v>
       </c>
       <c r="F7">
-        <v>12.96548541335781</v>
+        <v>22.24132471174411</v>
       </c>
       <c r="G7">
-        <v>28.77062820118815</v>
+        <v>49.35387018554881</v>
       </c>
       <c r="H7">
-        <v>2.706414227453608</v>
+        <v>4.642652065711642</v>
       </c>
       <c r="I7">
-        <v>225.6354162226128</v>
+        <v>387.0607538925141</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>87.5474268933223</v>
+        <v>150.1810913462577</v>
       </c>
       <c r="C8">
-        <v>3.638493715458265</v>
+        <v>6.241565017208993</v>
       </c>
       <c r="D8">
-        <v>16.87938664619575</v>
+        <v>28.95533081594749</v>
       </c>
       <c r="E8">
-        <v>19.13035251667133</v>
+        <v>32.81669514163035</v>
       </c>
       <c r="F8">
-        <v>7.448257577886398</v>
+        <v>12.77693121738491</v>
       </c>
       <c r="G8">
-        <v>47.5821927942727</v>
+        <v>81.62370838379228</v>
       </c>
       <c r="H8">
-        <v>1.082565690981444</v>
+        <v>1.857060826284657</v>
       </c>
       <c r="I8">
-        <v>183.3086758347882</v>
+        <v>314.4523827485064</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>54.41544328206503</v>
+        <v>93.34564073652118</v>
       </c>
       <c r="C9">
-        <v>1.819246857729133</v>
+        <v>3.120782508604496</v>
       </c>
       <c r="D9">
-        <v>17.8722917430308</v>
+        <v>30.65858556982676</v>
       </c>
       <c r="E9">
-        <v>29.19895910439309</v>
+        <v>50.08863995301475</v>
       </c>
       <c r="F9">
-        <v>7.724118969659971</v>
+        <v>13.25015089210287</v>
       </c>
       <c r="G9">
-        <v>50.90188066364059</v>
+        <v>87.31838571289406</v>
       </c>
       <c r="H9">
-        <v>0.5412828454907218</v>
+        <v>0.9285304131423285</v>
       </c>
       <c r="I9">
-        <v>162.4732234660093</v>
+        <v>278.7107157861064</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,25 +670,25 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>44.21254766667783</v>
+        <v>75.8433330984234</v>
       </c>
       <c r="C10">
-        <v>3.335285905836743</v>
+        <v>5.721434599108244</v>
       </c>
       <c r="D10">
-        <v>7.943240774680351</v>
+        <v>13.62603803103412</v>
       </c>
       <c r="E10">
-        <v>8.054885270177405</v>
+        <v>13.81755584910751</v>
       </c>
       <c r="F10">
-        <v>4.689643660150697</v>
+        <v>8.044734470205318</v>
       </c>
       <c r="G10">
-        <v>30.98375344743338</v>
+        <v>53.15032173828333</v>
       </c>
       <c r="I10">
-        <v>99.21935672495641</v>
+        <v>170.2034177861619</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,25 +696,25 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>29.07276707610328</v>
+        <v>49.87216692576231</v>
       </c>
       <c r="C11">
-        <v>0.9096234288645663</v>
+        <v>1.560391254302248</v>
       </c>
       <c r="D11">
-        <v>2.978715290505132</v>
+        <v>5.109764261637793</v>
       </c>
       <c r="E11">
-        <v>13.08918856403828</v>
+        <v>22.45352825479972</v>
       </c>
       <c r="F11">
-        <v>3.310336701282845</v>
+        <v>5.678636096615517</v>
       </c>
       <c r="G11">
-        <v>33.19687869367863</v>
+        <v>56.94677329101788</v>
       </c>
       <c r="I11">
-        <v>82.55750975447273</v>
+        <v>141.6212600841355</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -722,28 +722,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>16.45628325062451</v>
+        <v>28.2295284485447</v>
       </c>
       <c r="C12">
-        <v>2.728870286593699</v>
+        <v>4.681173762906743</v>
       </c>
       <c r="D12">
-        <v>1.985810193670088</v>
+        <v>3.406509507758529</v>
       </c>
       <c r="E12">
-        <v>8.054885270177405</v>
+        <v>13.81755584910751</v>
       </c>
       <c r="F12">
-        <v>1.655168350641422</v>
+        <v>2.839318048307759</v>
       </c>
       <c r="G12">
-        <v>9.959063608103593</v>
+        <v>17.08403198730536</v>
       </c>
       <c r="H12">
-        <v>0.5412828454907218</v>
+        <v>0.9285304131423285</v>
       </c>
       <c r="I12">
-        <v>41.38136380530143</v>
+        <v>70.98664801707294</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,25 +751,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>9.983478505378867</v>
+        <v>17.12591392545045</v>
       </c>
       <c r="C13">
-        <v>1.212831238486088</v>
+        <v>2.080521672402997</v>
       </c>
       <c r="D13">
-        <v>1.985810193670088</v>
+        <v>3.406509507758529</v>
       </c>
       <c r="E13">
-        <v>5.034303293860876</v>
+        <v>8.635972405692197</v>
       </c>
       <c r="F13">
-        <v>1.655168350641422</v>
+        <v>2.839318048307759</v>
       </c>
       <c r="G13">
-        <v>8.852500984980969</v>
+        <v>15.1858062109381</v>
       </c>
       <c r="I13">
-        <v>28.72409256701831</v>
+        <v>49.27404177055003</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -777,25 +777,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>5.814553415220659</v>
+        <v>9.974433385152464</v>
       </c>
       <c r="C14">
-        <v>1.819246857729133</v>
+        <v>3.120782508604496</v>
       </c>
       <c r="D14">
-        <v>2.978715290505132</v>
+        <v>5.109764261637793</v>
       </c>
       <c r="E14">
-        <v>4.027442635088702</v>
+        <v>6.908777924553756</v>
       </c>
       <c r="F14">
-        <v>2.482752525962133</v>
+        <v>4.258977072461638</v>
       </c>
       <c r="G14">
-        <v>16.59843934683932</v>
+        <v>28.47338664550894</v>
       </c>
       <c r="I14">
-        <v>33.72115007134508</v>
+        <v>57.84612179791909</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -803,25 +803,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>2.742713875104083</v>
+        <v>4.704921408090782</v>
       </c>
       <c r="C15">
-        <v>1.51603904810761</v>
+        <v>2.600652090503747</v>
       </c>
       <c r="D15">
-        <v>2.978715290505132</v>
+        <v>5.109764261637793</v>
       </c>
       <c r="E15">
-        <v>1.006860658772176</v>
+        <v>1.727194481138439</v>
       </c>
       <c r="F15">
-        <v>2.482752525962133</v>
+        <v>4.258977072461638</v>
       </c>
       <c r="G15">
-        <v>7.745938361858346</v>
+        <v>13.28758043457083</v>
       </c>
       <c r="I15">
-        <v>18.47301976030948</v>
+        <v>31.68908974840323</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -829,22 +829,22 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>1.535919770058287</v>
+        <v>2.634755988530838</v>
       </c>
       <c r="C16">
-        <v>0.9096234288645663</v>
+        <v>1.560391254302248</v>
       </c>
       <c r="D16">
-        <v>0.9929050968350439</v>
+        <v>1.703254753879265</v>
       </c>
       <c r="F16">
-        <v>0.8275841753207112</v>
+        <v>1.419659024153879</v>
       </c>
       <c r="G16">
-        <v>13.27875147747146</v>
+        <v>22.77870931640715</v>
       </c>
       <c r="I16">
-        <v>17.54478394855006</v>
+        <v>30.09677033727338</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -852,22 +852,22 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>7.460181740283109</v>
+        <v>12.79738623000692</v>
       </c>
       <c r="D17">
-        <v>1.985810193670088</v>
+        <v>3.406509507758529</v>
       </c>
       <c r="E17">
-        <v>4.027442635088702</v>
+        <v>6.908777924553756</v>
       </c>
       <c r="F17">
-        <v>2.206891134188563</v>
+        <v>3.785757397743679</v>
       </c>
       <c r="G17">
-        <v>27.66406557806553</v>
+        <v>47.45564440918156</v>
       </c>
       <c r="I17">
-        <v>43.34439128129598</v>
+        <v>74.35407546924445</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -875,25 +875,25 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>17.99220302068279</v>
+        <v>30.86428443707553</v>
       </c>
       <c r="C18">
-        <v>1.212831238486088</v>
+        <v>2.080521672402997</v>
       </c>
       <c r="D18">
-        <v>3.971620387340176</v>
+        <v>6.813019015517058</v>
       </c>
       <c r="E18">
-        <v>12.08232790526611</v>
+        <v>20.72633377366127</v>
       </c>
       <c r="F18">
-        <v>7.172396186112829</v>
+        <v>12.30371154266695</v>
       </c>
       <c r="G18">
-        <v>61.96750689486677</v>
+        <v>106.3006434765667</v>
       </c>
       <c r="I18">
-        <v>104.3988856327547</v>
+        <v>179.0885139178905</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,28 +901,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>56.82903149215663</v>
+        <v>97.48597157564099</v>
       </c>
       <c r="C19">
-        <v>0.9096234288645663</v>
+        <v>1.560391254302248</v>
       </c>
       <c r="D19">
-        <v>9.929050968350442</v>
+        <v>17.03254753879264</v>
       </c>
       <c r="E19">
-        <v>42.28814766843138</v>
+        <v>72.54216820781447</v>
       </c>
       <c r="F19">
-        <v>14.34479237222566</v>
+        <v>24.60742308533391</v>
       </c>
       <c r="G19">
-        <v>88.52500984980969</v>
+        <v>151.858062109381</v>
       </c>
       <c r="H19">
-        <v>1.623848536472165</v>
+        <v>2.785591239426986</v>
       </c>
       <c r="I19">
-        <v>214.4495043163105</v>
+        <v>367.8721550106923</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -930,28 +930,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>114.7551485343549</v>
+        <v>196.8539117145183</v>
       </c>
       <c r="C20">
-        <v>1.819246857729133</v>
+        <v>3.120782508604496</v>
       </c>
       <c r="D20">
-        <v>32.76586819555644</v>
+        <v>56.20740687801572</v>
       </c>
       <c r="E20">
-        <v>35.24012305702616</v>
+        <v>60.45180683984538</v>
       </c>
       <c r="F20">
-        <v>23.72407969252705</v>
+        <v>40.69689202574455</v>
       </c>
       <c r="G20">
-        <v>64.18063214111204</v>
+        <v>110.0970950293012</v>
       </c>
       <c r="H20">
-        <v>3.247697072944331</v>
+        <v>5.571182478853972</v>
       </c>
       <c r="I20">
-        <v>275.7327955512501</v>
+        <v>472.9990774748836</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,28 +959,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>126.0551296997837</v>
+        <v>216.2381879158523</v>
       </c>
       <c r="C21">
-        <v>3.335285905836743</v>
+        <v>5.721434599108244</v>
       </c>
       <c r="D21">
-        <v>19.85810193670088</v>
+        <v>34.06509507758528</v>
       </c>
       <c r="E21">
-        <v>26.17837712807655</v>
+        <v>44.90705650959944</v>
       </c>
       <c r="F21">
-        <v>20.68960438301778</v>
+        <v>35.49147560384699</v>
       </c>
       <c r="G21">
-        <v>59.75438164862152</v>
+        <v>102.5041919238321</v>
       </c>
       <c r="H21">
-        <v>3.247697072944331</v>
+        <v>5.571182478853972</v>
       </c>
       <c r="I21">
-        <v>259.1185777749815</v>
+        <v>444.4986241086783</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -988,28 +988,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>98.51828239373873</v>
+        <v>169.0007769786209</v>
       </c>
       <c r="C22">
-        <v>2.122454667350655</v>
+        <v>3.640912926705246</v>
       </c>
       <c r="D22">
-        <v>27.80134271138124</v>
+        <v>47.69113310861942</v>
       </c>
       <c r="E22">
-        <v>26.17837712807655</v>
+        <v>44.90705650959944</v>
       </c>
       <c r="F22">
-        <v>24.2758024760742</v>
+        <v>41.64333137518047</v>
       </c>
       <c r="G22">
-        <v>75.24625837233822</v>
+        <v>129.0793527929738</v>
       </c>
       <c r="H22">
-        <v>2.706414227453608</v>
+        <v>4.642652065711642</v>
       </c>
       <c r="I22">
-        <v>256.8489319764132</v>
+        <v>440.6052157574109</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>69.4455153176354</v>
+        <v>119.1286100528586</v>
       </c>
       <c r="C23">
-        <v>5.154532763565875</v>
+        <v>8.84221710771274</v>
       </c>
       <c r="D23">
-        <v>22.83681722720601</v>
+        <v>39.17485933922308</v>
       </c>
       <c r="E23">
-        <v>10.06860658772175</v>
+        <v>17.27194481138439</v>
       </c>
       <c r="F23">
-        <v>29.79303031154559</v>
+        <v>51.10772486953964</v>
       </c>
       <c r="G23">
-        <v>74.13969574921563</v>
+        <v>127.1811270166066</v>
       </c>
       <c r="H23">
-        <v>3.247697072944331</v>
+        <v>5.571182478853972</v>
       </c>
       <c r="I23">
-        <v>214.6858950298346</v>
+        <v>368.277665676179</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>70.76201797768537</v>
+        <v>121.3869723287422</v>
       </c>
       <c r="C24">
-        <v>1.819246857729133</v>
+        <v>3.120782508604496</v>
       </c>
       <c r="D24">
-        <v>26.80843761454619</v>
+        <v>45.98787835474013</v>
       </c>
       <c r="E24">
-        <v>15.10290988158264</v>
+        <v>25.9079172170766</v>
       </c>
       <c r="F24">
-        <v>27.58613917735705</v>
+        <v>47.32196747179598</v>
       </c>
       <c r="G24">
-        <v>66.39375738735727</v>
+        <v>113.8935465820358</v>
       </c>
       <c r="H24">
-        <v>1.623848536472165</v>
+        <v>2.785591239426986</v>
       </c>
       <c r="I24">
-        <v>210.0963574327298</v>
+        <v>360.4046557024222</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>66.59309288752713</v>
+        <v>114.2354917884442</v>
       </c>
       <c r="C25">
-        <v>3.941701525079786</v>
+        <v>6.76169543530974</v>
       </c>
       <c r="D25">
-        <v>17.8722917430308</v>
+        <v>30.65858556982676</v>
       </c>
       <c r="E25">
-        <v>13.08918856403828</v>
+        <v>22.45352825479972</v>
       </c>
       <c r="F25">
-        <v>17.37926768173493</v>
+        <v>29.81283950723147</v>
       </c>
       <c r="G25">
-        <v>48.68875541739533</v>
+        <v>83.52193416015955</v>
       </c>
       <c r="H25">
-        <v>1.082565690981444</v>
+        <v>1.857060826284657</v>
       </c>
       <c r="I25">
-        <v>168.6468635097877</v>
+        <v>289.3011355420561</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>77.01540561292268</v>
+        <v>132.1141931391892</v>
       </c>
       <c r="C26">
-        <v>2.122454667350655</v>
+        <v>3.640912926705246</v>
       </c>
       <c r="D26">
-        <v>27.80134271138124</v>
+        <v>47.69113310861942</v>
       </c>
       <c r="E26">
-        <v>11.07546724649393</v>
+        <v>18.99913929252283</v>
       </c>
       <c r="F26">
-        <v>27.0344163938099</v>
+        <v>46.37552812236007</v>
       </c>
       <c r="G26">
-        <v>54.22156853300844</v>
+        <v>93.01306304199589</v>
       </c>
       <c r="H26">
-        <v>2.706414227453608</v>
+        <v>4.642652065711642</v>
       </c>
       <c r="I26">
-        <v>201.9770693924205</v>
+        <v>346.4766216971043</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>74.60181740283107</v>
+        <v>127.9738623000693</v>
       </c>
       <c r="C27">
-        <v>2.425662476972176</v>
+        <v>4.161043344805995</v>
       </c>
       <c r="D27">
-        <v>21.84391213037097</v>
+        <v>37.47160458534383</v>
       </c>
       <c r="E27">
-        <v>10.06860658772175</v>
+        <v>17.27194481138439</v>
       </c>
       <c r="F27">
-        <v>16.55168350641422</v>
+        <v>28.39318048307759</v>
       </c>
       <c r="G27">
-        <v>58.64781902549893</v>
+        <v>100.6059661474649</v>
       </c>
       <c r="H27">
-        <v>1.082565690981444</v>
+        <v>1.857060826284657</v>
       </c>
       <c r="I27">
-        <v>185.2220668207906</v>
+        <v>317.7346624984308</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>82.28141625312252</v>
+        <v>141.1476422427235</v>
       </c>
       <c r="C28">
-        <v>3.335285905836743</v>
+        <v>5.721434599108244</v>
       </c>
       <c r="D28">
-        <v>36.73748858289664</v>
+        <v>63.02042589353278</v>
       </c>
       <c r="E28">
-        <v>17.11663119912699</v>
+        <v>29.36230617935347</v>
       </c>
       <c r="F28">
-        <v>24.55166386784776</v>
+        <v>42.11655104989841</v>
       </c>
       <c r="G28">
-        <v>52.00844328676318</v>
+        <v>89.21661148926134</v>
       </c>
       <c r="H28">
-        <v>2.165131381962887</v>
+        <v>3.714121652569314</v>
       </c>
       <c r="I28">
-        <v>218.1960604775567</v>
+        <v>374.2990931064471</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>118.0464051844798</v>
+        <v>202.4998174042273</v>
       </c>
       <c r="C29">
-        <v>3.638493715458265</v>
+        <v>6.241565017208993</v>
       </c>
       <c r="D29">
-        <v>40.70910897023681</v>
+        <v>69.83344490904985</v>
       </c>
       <c r="E29">
-        <v>20.13721317544351</v>
+        <v>34.54388962276879</v>
       </c>
       <c r="F29">
-        <v>26.20683221848918</v>
+        <v>44.95586909820617</v>
       </c>
       <c r="G29">
-        <v>35.41000393992388</v>
+        <v>60.74322484375239</v>
       </c>
       <c r="H29">
-        <v>2.706414227453608</v>
+        <v>4.642652065711642</v>
       </c>
       <c r="I29">
-        <v>246.8544714314851</v>
+        <v>423.4604629609252</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>133.8444371050793</v>
+        <v>229.6001647148302</v>
       </c>
       <c r="C30">
-        <v>4.244909334701311</v>
+        <v>7.281825853410492</v>
       </c>
       <c r="D30">
-        <v>39.71620387340177</v>
+        <v>68.13019015517057</v>
       </c>
       <c r="E30">
-        <v>23.15779515176004</v>
+        <v>39.72547306618411</v>
       </c>
       <c r="F30">
-        <v>17.10340628996136</v>
+        <v>29.33961983251351</v>
       </c>
       <c r="G30">
-        <v>25.45094033182029</v>
+        <v>43.65919285644703</v>
       </c>
       <c r="H30">
-        <v>2.706414227453608</v>
+        <v>4.642652065711642</v>
       </c>
       <c r="I30">
-        <v>246.2241063141776</v>
+        <v>422.3791185442675</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>125.5065869247629</v>
+        <v>215.2972036342343</v>
       </c>
       <c r="C31">
-        <v>3.032078096215221</v>
+        <v>5.201304181007494</v>
       </c>
       <c r="D31">
-        <v>42.6949191639069</v>
+        <v>73.23995441680836</v>
       </c>
       <c r="E31">
-        <v>32.21954108070962</v>
+        <v>55.27022339643005</v>
       </c>
       <c r="F31">
-        <v>13.24134680513138</v>
+        <v>22.71454438646207</v>
       </c>
       <c r="G31">
-        <v>40.94281705553698</v>
+        <v>70.2343537255887</v>
       </c>
       <c r="H31">
-        <v>1.082565690981444</v>
+        <v>1.857060826284657</v>
       </c>
       <c r="I31">
-        <v>258.7198548172444</v>
+        <v>443.8146445668156</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,25 +1278,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>79.86782804303094</v>
+        <v>137.0073114036036</v>
       </c>
       <c r="C32">
-        <v>2.425662476972176</v>
+        <v>4.161043344805995</v>
       </c>
       <c r="D32">
-        <v>40.70910897023681</v>
+        <v>69.83344490904985</v>
       </c>
       <c r="E32">
-        <v>27.18523778684873</v>
+        <v>46.63425099073786</v>
       </c>
       <c r="F32">
-        <v>11.58617845448996</v>
+        <v>19.87522633815431</v>
       </c>
       <c r="G32">
-        <v>46.47563017115009</v>
+        <v>79.72548260742501</v>
       </c>
       <c r="I32">
-        <v>208.2496459027287</v>
+        <v>357.2367595937766</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1304,25 +1304,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>50.46593530191515</v>
+        <v>86.57055390887041</v>
       </c>
       <c r="C33">
-        <v>3.638493715458265</v>
+        <v>6.241565017208993</v>
       </c>
       <c r="D33">
-        <v>20.85100703353592</v>
+        <v>35.76834983146455</v>
       </c>
       <c r="E33">
-        <v>32.21954108070962</v>
+        <v>55.27022339643005</v>
       </c>
       <c r="F33">
-        <v>6.344812010792118</v>
+        <v>10.88405251851308</v>
       </c>
       <c r="G33">
-        <v>39.83625443241437</v>
+        <v>68.33612794922145</v>
       </c>
       <c r="I33">
-        <v>153.3560435748254</v>
+        <v>263.0708726217085</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>42.67662789661955</v>
+        <v>73.20857710989259</v>
       </c>
       <c r="C34">
-        <v>2.122454667350655</v>
+        <v>3.640912926705246</v>
       </c>
       <c r="D34">
-        <v>9.929050968350442</v>
+        <v>17.03254753879264</v>
       </c>
       <c r="E34">
-        <v>10.06860658772175</v>
+        <v>17.27194481138439</v>
       </c>
       <c r="F34">
-        <v>5.517227835471407</v>
+        <v>9.464393494359197</v>
       </c>
       <c r="G34">
-        <v>34.30344131680125</v>
+        <v>58.84499906738513</v>
       </c>
       <c r="H34">
-        <v>0.5412828454907218</v>
+        <v>0.9285304131423285</v>
       </c>
       <c r="I34">
-        <v>105.1586921178058</v>
+        <v>180.3919053616615</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,28 +1359,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>33.79023494128231</v>
+        <v>57.96463174767847</v>
       </c>
       <c r="C35">
-        <v>2.728870286593699</v>
+        <v>4.681173762906743</v>
       </c>
       <c r="D35">
-        <v>10.92195606518549</v>
+        <v>18.73580229267192</v>
       </c>
       <c r="E35">
-        <v>14.09604922281046</v>
+        <v>24.18072273593816</v>
       </c>
       <c r="F35">
-        <v>7.172396186112829</v>
+        <v>12.30371154266695</v>
       </c>
       <c r="G35">
-        <v>36.51656656304649</v>
+        <v>62.64145062011968</v>
       </c>
       <c r="H35">
-        <v>0.5412828454907218</v>
+        <v>0.9285304131423285</v>
       </c>
       <c r="I35">
-        <v>105.767356110522</v>
+        <v>181.4360231151243</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,25 +1388,25 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>17.44366024566197</v>
+        <v>29.92330015545737</v>
       </c>
       <c r="C36">
-        <v>2.122454667350655</v>
+        <v>3.640912926705246</v>
       </c>
       <c r="D36">
-        <v>5.957430581010264</v>
+        <v>10.21952852327559</v>
       </c>
       <c r="E36">
-        <v>7.04802461140523</v>
+        <v>12.09036136796908</v>
       </c>
       <c r="F36">
-        <v>3.310336701282845</v>
+        <v>5.678636096615517</v>
       </c>
       <c r="G36">
-        <v>17.70500196996194</v>
+        <v>30.37161242187619</v>
       </c>
       <c r="I36">
-        <v>53.5869087766729</v>
+        <v>91.92435149189899</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1414,28 +1414,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>10.64172983540385</v>
+        <v>18.25509506339224</v>
       </c>
       <c r="C37">
-        <v>2.728870286593699</v>
+        <v>4.681173762906743</v>
       </c>
       <c r="D37">
-        <v>1.985810193670088</v>
+        <v>3.406509507758529</v>
       </c>
       <c r="E37">
-        <v>5.034303293860876</v>
+        <v>8.635972405692197</v>
       </c>
       <c r="F37">
-        <v>3.586198093056415</v>
+        <v>6.151855771333477</v>
       </c>
       <c r="G37">
-        <v>11.06562623122621</v>
+        <v>18.98225776367263</v>
       </c>
       <c r="H37">
-        <v>0.5412828454907218</v>
+        <v>0.9285304131423285</v>
       </c>
       <c r="I37">
-        <v>35.58382077930185</v>
+        <v>61.04139468789813</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1443,25 +1443,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>5.156302085195676</v>
+        <v>8.845252247210672</v>
       </c>
       <c r="C38">
-        <v>3.032078096215221</v>
+        <v>5.201304181007494</v>
       </c>
       <c r="D38">
-        <v>1.985810193670088</v>
+        <v>3.406509507758529</v>
       </c>
       <c r="E38">
-        <v>5.034303293860876</v>
+        <v>8.635972405692197</v>
       </c>
       <c r="F38">
-        <v>2.482752525962133</v>
+        <v>4.258977072461638</v>
       </c>
       <c r="G38">
-        <v>12.17218885434883</v>
+        <v>20.88048354003989</v>
       </c>
       <c r="I38">
-        <v>29.86343504925282</v>
+        <v>51.22849895417042</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>3.949507980149883</v>
+        <v>6.775086827650728</v>
       </c>
       <c r="C39">
-        <v>0.9096234288645663</v>
+        <v>1.560391254302248</v>
       </c>
       <c r="F39">
-        <v>1.379306958867852</v>
+        <v>2.366098373589799</v>
       </c>
       <c r="G39">
-        <v>12.17218885434883</v>
+        <v>20.88048354003989</v>
       </c>
       <c r="I39">
-        <v>18.41062722223113</v>
+        <v>31.58205999558266</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,22 +1489,22 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>3.839799425145718</v>
+        <v>6.586889971327095</v>
       </c>
       <c r="C40">
-        <v>1.212831238486088</v>
+        <v>2.080521672402997</v>
       </c>
       <c r="E40">
-        <v>2.013721317544351</v>
+        <v>3.454388962276878</v>
       </c>
       <c r="F40">
-        <v>2.482752525962133</v>
+        <v>4.258977072461638</v>
       </c>
       <c r="G40">
-        <v>23.23781508557504</v>
+        <v>39.8627413037125</v>
       </c>
       <c r="I40">
-        <v>32.78691959271333</v>
+        <v>56.24351898218112</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1512,25 +1512,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>8.447558735320579</v>
+        <v>14.49115793691962</v>
       </c>
       <c r="C41">
-        <v>0.6064156192430441</v>
+        <v>1.040260836201499</v>
       </c>
       <c r="D41">
-        <v>3.971620387340176</v>
+        <v>6.813019015517058</v>
       </c>
       <c r="E41">
-        <v>4.027442635088702</v>
+        <v>6.908777924553756</v>
       </c>
       <c r="F41">
-        <v>4.965505051924267</v>
+        <v>8.517954144923277</v>
       </c>
       <c r="G41">
-        <v>44.26250492490485</v>
+        <v>75.92903105469051</v>
       </c>
       <c r="I41">
-        <v>66.28104735382161</v>
+        <v>113.7002009128057</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>18.76016290571193</v>
+        <v>32.18166243134097</v>
       </c>
       <c r="C42">
-        <v>1.819246857729133</v>
+        <v>3.120782508604496</v>
       </c>
       <c r="D42">
-        <v>8.936145871515398</v>
+        <v>15.32929278491338</v>
       </c>
       <c r="E42">
-        <v>14.09604922281046</v>
+        <v>24.18072273593816</v>
       </c>
       <c r="F42">
-        <v>6.896534794339262</v>
+        <v>11.83049186794899</v>
       </c>
       <c r="G42">
-        <v>56.43469377925369</v>
+        <v>96.8095145947304</v>
       </c>
       <c r="H42">
-        <v>1.082565690981444</v>
+        <v>1.857060826284657</v>
       </c>
       <c r="I42">
-        <v>108.0253991223413</v>
+        <v>185.309527749761</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>62.42416779736894</v>
+        <v>107.0840112481462</v>
       </c>
       <c r="C43">
-        <v>1.51603904810761</v>
+        <v>2.600652090503747</v>
       </c>
       <c r="D43">
-        <v>11.91486116202053</v>
+        <v>20.43905704655117</v>
       </c>
       <c r="E43">
-        <v>45.3087296447479</v>
+        <v>77.72375165122978</v>
       </c>
       <c r="F43">
-        <v>17.93099046528208</v>
+        <v>30.75927885666738</v>
       </c>
       <c r="G43">
-        <v>86.31188460356445</v>
+        <v>148.0616105566465</v>
       </c>
       <c r="I43">
-        <v>225.4066727210915</v>
+        <v>386.6683614497448</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>112.8901030992841</v>
+        <v>193.6545651570167</v>
       </c>
       <c r="C44">
-        <v>1.819246857729133</v>
+        <v>3.120782508604496</v>
       </c>
       <c r="D44">
-        <v>29.78715290505132</v>
+        <v>51.09764261637793</v>
       </c>
       <c r="E44">
-        <v>36.24698371579832</v>
+        <v>62.17900132098384</v>
       </c>
       <c r="F44">
-        <v>22.06891134188563</v>
+        <v>37.85757397743679</v>
       </c>
       <c r="G44">
-        <v>78.5659462417061</v>
+        <v>134.7740301220756</v>
       </c>
       <c r="H44">
-        <v>3.247697072944331</v>
+        <v>5.571182478853972</v>
       </c>
       <c r="I44">
-        <v>284.6260412343989</v>
+        <v>488.2547781813494</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>123.5318329346879</v>
+        <v>211.9096602204088</v>
       </c>
       <c r="C45">
-        <v>3.032078096215221</v>
+        <v>5.201304181007494</v>
       </c>
       <c r="D45">
-        <v>27.80134271138124</v>
+        <v>47.69113310861942</v>
       </c>
       <c r="E45">
-        <v>24.16465581053221</v>
+        <v>41.45266754732254</v>
       </c>
       <c r="F45">
-        <v>17.6551290735085</v>
+        <v>30.28605918194943</v>
       </c>
       <c r="G45">
-        <v>57.54125640237629</v>
+        <v>98.70774037109761</v>
       </c>
       <c r="H45">
-        <v>2.165131381962887</v>
+        <v>3.714121652569314</v>
       </c>
       <c r="I45">
-        <v>255.8914264106643</v>
+        <v>438.9626862629746</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>93.03285464353054</v>
+        <v>159.5909341624394</v>
       </c>
       <c r="C46">
-        <v>4.548117144322831</v>
+        <v>7.801956271511239</v>
       </c>
       <c r="D46">
-        <v>28.79424780821627</v>
+        <v>49.39438786249868</v>
       </c>
       <c r="E46">
-        <v>22.15093449298786</v>
+        <v>37.99827858504567</v>
       </c>
       <c r="F46">
-        <v>21.24132716656492</v>
+        <v>36.43791495328291</v>
       </c>
       <c r="G46">
-        <v>79.67250886482874</v>
+        <v>136.6722558984429</v>
       </c>
       <c r="H46">
-        <v>2.165131381962887</v>
+        <v>3.714121652569314</v>
       </c>
       <c r="I46">
-        <v>251.6051215024141</v>
+        <v>431.6098493857901</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>70.43289231267289</v>
+        <v>120.8223817597713</v>
       </c>
       <c r="C47">
-        <v>3.032078096215221</v>
+        <v>5.201304181007494</v>
       </c>
       <c r="D47">
-        <v>27.80134271138124</v>
+        <v>47.69113310861942</v>
       </c>
       <c r="E47">
-        <v>16.10977054035481</v>
+        <v>27.63511169821502</v>
       </c>
       <c r="F47">
-        <v>26.20683221848918</v>
+        <v>44.95586909820617</v>
       </c>
       <c r="G47">
-        <v>78.5659462417061</v>
+        <v>134.7740301220756</v>
       </c>
       <c r="H47">
-        <v>2.706414227453608</v>
+        <v>4.642652065711642</v>
       </c>
       <c r="I47">
-        <v>224.8552763482731</v>
+        <v>385.7224820336066</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>68.45813832259796</v>
+        <v>117.4348383459459</v>
       </c>
       <c r="C48">
-        <v>2.122454667350655</v>
+        <v>3.640912926705246</v>
       </c>
       <c r="D48">
-        <v>21.84391213037097</v>
+        <v>37.47160458534383</v>
       </c>
       <c r="E48">
-        <v>17.11663119912699</v>
+        <v>29.36230617935347</v>
       </c>
       <c r="F48">
-        <v>25.1033866513949</v>
+        <v>43.06299039933433</v>
       </c>
       <c r="G48">
-        <v>56.43469377925369</v>
+        <v>96.8095145947304</v>
       </c>
       <c r="H48">
-        <v>2.165131381962887</v>
+        <v>3.714121652569314</v>
       </c>
       <c r="I48">
-        <v>193.244348132058</v>
+        <v>331.4962886839825</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>70.65230942268121</v>
+        <v>121.1987754724185</v>
       </c>
       <c r="C49">
-        <v>4.851324953944353</v>
+        <v>8.322086689611989</v>
       </c>
       <c r="D49">
-        <v>21.84391213037097</v>
+        <v>37.47160458534383</v>
       </c>
       <c r="E49">
-        <v>13.08918856403828</v>
+        <v>22.45352825479972</v>
       </c>
       <c r="F49">
-        <v>20.68960438301778</v>
+        <v>35.49147560384699</v>
       </c>
       <c r="G49">
-        <v>45.36906754802747</v>
+        <v>77.82725683105777</v>
       </c>
       <c r="H49">
-        <v>1.082565690981444</v>
+        <v>1.857060826284657</v>
       </c>
       <c r="I49">
-        <v>177.5779726930615</v>
+        <v>304.6217882633635</v>
       </c>
     </row>
   </sheetData>
